--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1189760.760952999</v>
+        <v>1184638.077009216</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>94.55539416156837</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>402.534031931252</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.354104522133</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1502,7 +1502,7 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T12" t="n">
-        <v>96.6594637817366</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U12" t="n">
         <v>195.3031364387235</v>
@@ -1511,10 +1511,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>39.57194747156901</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I13" t="n">
         <v>86.76043262169277</v>
@@ -1578,19 +1578,19 @@
         <v>41.92423303279622</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T13" t="n">
-        <v>15.03994918303963</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>132.1213911808422</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.85692554143233</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>264.0303797469966</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>76.11006201010736</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1745,10 +1745,10 @@
         <v>195.3031364387235</v>
       </c>
       <c r="V15" t="n">
-        <v>59.65670283022751</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>13.49868732321227</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1779,13 +1779,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H16" t="n">
         <v>139.7084588006711</v>
       </c>
       <c r="I16" t="n">
-        <v>86.76043262169276</v>
+        <v>86.76043262169277</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9242330327962</v>
+        <v>41.92423303279622</v>
       </c>
       <c r="S16" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>157.2761758756795</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>6.51305494762933</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.259309774520673</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>61.10541451944339</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.9689551171093</v>
+        <v>3.90922773830394</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
@@ -1940,7 +1940,7 @@
         <v>104.7928835793171</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2019,7 +2019,7 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I19" t="n">
         <v>86.76043262169277</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.92423303279622</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.78853215513288</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>33.0884674493057</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>356.7712553456341</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>70.88293723984548</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>45.81682924225598</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -2225,10 +2225,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>22.81716546888143</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.77809159034414</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.76043262169277</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.92423303279622</v>
+        <v>34.1946732312221</v>
       </c>
       <c r="S22" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>326.1741533210133</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>151.0636956545114</v>
       </c>
       <c r="I23" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7928835793171</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>59.15212587485323</v>
@@ -2453,13 +2453,13 @@
         <v>153.2045223101729</v>
       </c>
       <c r="U24" t="n">
-        <v>35.52752234857323</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>48.24782505088125</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.300514783162</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.6327732551108</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>89.67147836488263</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>240.9328264228613</v>
+        <v>294.4272982440813</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7928835793171</v>
+        <v>30.98775649911602</v>
       </c>
       <c r="H27" t="n">
         <v>59.15212587485323</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>153.2045223101729</v>
@@ -2696,13 +2696,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>101.2628815113723</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2721,7 +2721,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S28" t="n">
         <v>168.0570925953575</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.64135741589619</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>30.67525257049121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>80.99554468603309</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>91.37952999153303</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>101.5574892022441</v>
       </c>
       <c r="F30" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7928835793171</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>153.2045223101729</v>
       </c>
       <c r="U30" t="n">
-        <v>46.94512917684778</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.38208518514643</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.7084588006711</v>
+        <v>94.59594322790954</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U31" t="n">
         <v>279.9186143115952</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3031,16 +3031,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>48.72120186374718</v>
+        <v>387.7505119346919</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T32" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>46.94512917684823</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -3161,10 +3161,10 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3031364387235</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3173,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>60.12134924319804</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.8515421969718</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>164.6327732551108</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I34" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.0570925953575</v>
       </c>
       <c r="T34" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>169.9866142598079</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>76.70066643105362</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>160.7507806956101</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U35" t="n">
         <v>254.3213292762975</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>111.7795087576242</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>104.7928835793171</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T36" t="n">
         <v>153.2045223101729</v>
@@ -3410,7 +3410,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>108.615500145776</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>41.37314290809673</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6327732551108</v>
+        <v>98.62346153401374</v>
       </c>
       <c r="H37" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.0570925953575</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>83.85692554143233</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>79.68345699302324</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3584,7 +3584,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3635,7 +3635,7 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T39" t="n">
-        <v>137.5016355868416</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U39" t="n">
         <v>195.3031364387235</v>
@@ -3650,7 +3650,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>9.449932777932784</v>
       </c>
     </row>
     <row r="40">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.17886988295859</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>10.98835841023385</v>
       </c>
       <c r="I40" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.0570925953575</v>
@@ -3717,7 +3717,7 @@
         <v>233.1150376599508</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>331.0219957073514</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U41" t="n">
-        <v>120.703738956311</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3824,7 +3824,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>104.7928835793171</v>
       </c>
       <c r="H42" t="n">
-        <v>59.15212587485323</v>
+        <v>26.5223048157797</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>195.3031364387235</v>
       </c>
       <c r="V42" t="n">
-        <v>63.21640447502105</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>92.45173671044108</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>139.7084588006711</v>
@@ -3957,16 +3957,16 @@
         <v>279.9186143115952</v>
       </c>
       <c r="V43" t="n">
-        <v>20.47916141753202</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>54.48766805036292</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H44" t="n">
-        <v>90.77573884430409</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -4070,7 +4070,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>32.45012490857004</v>
       </c>
       <c r="H45" t="n">
         <v>59.15212587485323</v>
@@ -4112,7 +4112,7 @@
         <v>153.2045223101729</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3031364387235</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4124,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>127.6100490481986</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.2120256412578</v>
+        <v>115.787150537095</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>941.6242376160608</v>
+        <v>1556.25668858815</v>
       </c>
       <c r="C11" t="n">
-        <v>941.6242376160608</v>
+        <v>1556.25668858815</v>
       </c>
       <c r="D11" t="n">
-        <v>537.1603077091213</v>
+        <v>1151.79275868121</v>
       </c>
       <c r="E11" t="n">
-        <v>537.1603077091213</v>
+        <v>1151.79275868121</v>
       </c>
       <c r="F11" t="n">
-        <v>441.6498085560219</v>
+        <v>730.7623466348978</v>
       </c>
       <c r="G11" t="n">
-        <v>35.04977630223195</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="H11" t="n">
         <v>35.04977630223195</v>
@@ -5044,13 +5044,13 @@
         <v>139.4975455796487</v>
       </c>
       <c r="K11" t="n">
-        <v>316.5867763250664</v>
+        <v>316.5867763250662</v>
       </c>
       <c r="L11" t="n">
-        <v>551.2268399181751</v>
+        <v>551.226839918175</v>
       </c>
       <c r="M11" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N11" t="n">
         <v>1105.344363062593</v>
@@ -5059,7 +5059,7 @@
         <v>1364.537108414118</v>
       </c>
       <c r="P11" t="n">
-        <v>1571.77921458767</v>
+        <v>1571.779214587669</v>
       </c>
       <c r="Q11" t="n">
         <v>1707.899443143073</v>
@@ -5068,25 +5068,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S11" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T11" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U11" t="n">
-        <v>1752.488815111598</v>
+        <v>1556.25668858815</v>
       </c>
       <c r="V11" t="n">
-        <v>1752.488815111598</v>
+        <v>1556.25668858815</v>
       </c>
       <c r="W11" t="n">
-        <v>1752.488815111598</v>
+        <v>1556.25668858815</v>
       </c>
       <c r="X11" t="n">
-        <v>1351.84541728055</v>
+        <v>1556.25668858815</v>
       </c>
       <c r="Y11" t="n">
-        <v>1351.84541728055</v>
+        <v>1556.25668858815</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>680.9957208097385</v>
+        <v>547.0006495586841</v>
       </c>
       <c r="C12" t="n">
         <v>547.0006495586841</v>
@@ -5120,28 +5120,28 @@
         <v>35.04977630223195</v>
       </c>
       <c r="J12" t="n">
-        <v>150.0702593933215</v>
+        <v>333.3053281020599</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0210935531577</v>
+        <v>637.3313325492602</v>
       </c>
       <c r="L12" t="n">
-        <v>461.7935391395705</v>
+        <v>824.103778135673</v>
       </c>
       <c r="M12" t="n">
-        <v>687.5877052615508</v>
+        <v>1049.897944257653</v>
       </c>
       <c r="N12" t="n">
-        <v>925.1934722801473</v>
+        <v>1287.50371127625</v>
       </c>
       <c r="O12" t="n">
-        <v>1133.557311992208</v>
+        <v>1495.86755098831</v>
       </c>
       <c r="P12" t="n">
-        <v>1567.298293732328</v>
+        <v>1655.268010209309</v>
       </c>
       <c r="Q12" t="n">
-        <v>1653.63600483296</v>
+        <v>1741.605721309941</v>
       </c>
       <c r="R12" t="n">
         <v>1752.488815111598</v>
@@ -5150,22 +5150,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T12" t="n">
-        <v>1568.014117342218</v>
+        <v>1510.897896606424</v>
       </c>
       <c r="U12" t="n">
-        <v>1370.738221949568</v>
+        <v>1313.622001213774</v>
       </c>
       <c r="V12" t="n">
-        <v>1157.026694942602</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.026694942602</v>
+        <v>886.6773059431367</v>
       </c>
       <c r="X12" t="n">
-        <v>980.7007130814951</v>
+        <v>846.7056418304408</v>
       </c>
       <c r="Y12" t="n">
-        <v>821.2987534453251</v>
+        <v>687.3036821942708</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.8123474967032</v>
+        <v>759.0253752891999</v>
       </c>
       <c r="C13" t="n">
-        <v>446.8123474967032</v>
+        <v>587.9320028509164</v>
       </c>
       <c r="D13" t="n">
-        <v>287.3177028196132</v>
+        <v>428.4373581738265</v>
       </c>
       <c r="E13" t="n">
-        <v>287.3177028196132</v>
+        <v>428.4373581738265</v>
       </c>
       <c r="F13" t="n">
-        <v>122.6865769302045</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="G13" t="n">
-        <v>122.6865769302045</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="H13" t="n">
         <v>122.6865769302045</v>
@@ -5208,16 +5208,16 @@
         <v>777.5476490331416</v>
       </c>
       <c r="M13" t="n">
-        <v>868.5147480934394</v>
+        <v>1193.144939326161</v>
       </c>
       <c r="N13" t="n">
-        <v>960.5011508514559</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O13" t="n">
-        <v>1352.313440636309</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P13" t="n">
-        <v>1608.611787399958</v>
+        <v>1734.885747605795</v>
       </c>
       <c r="Q13" t="n">
         <v>1752.488815111598</v>
@@ -5226,25 +5226,25 @@
         <v>1710.14110497746</v>
       </c>
       <c r="S13" t="n">
-        <v>1710.14110497746</v>
+        <v>1540.386465992251</v>
       </c>
       <c r="T13" t="n">
-        <v>1694.949237115804</v>
+        <v>1304.916730982199</v>
       </c>
       <c r="U13" t="n">
-        <v>1412.203162053587</v>
+        <v>1304.916730982199</v>
       </c>
       <c r="V13" t="n">
-        <v>1138.317416993109</v>
+        <v>1171.46078029448</v>
       </c>
       <c r="W13" t="n">
-        <v>859.2477525019829</v>
+        <v>1171.46078029448</v>
       </c>
       <c r="X13" t="n">
-        <v>859.2477525019829</v>
+        <v>1171.46078029448</v>
       </c>
       <c r="Y13" t="n">
-        <v>634.5120538907476</v>
+        <v>946.7250816832443</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1129.377573882129</v>
+        <v>950.9087442286403</v>
       </c>
       <c r="C14" t="n">
-        <v>1129.377573882129</v>
+        <v>540.7841535419104</v>
       </c>
       <c r="D14" t="n">
-        <v>1129.377573882129</v>
+        <v>540.7841535419104</v>
       </c>
       <c r="E14" t="n">
-        <v>1129.377573882129</v>
+        <v>456.0801883485444</v>
       </c>
       <c r="F14" t="n">
-        <v>708.3471618358165</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="G14" t="n">
-        <v>301.7471295820265</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I14" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J14" t="n">
-        <v>139.4975455796488</v>
+        <v>139.4975455796487</v>
       </c>
       <c r="K14" t="n">
         <v>316.5867763250664</v>
       </c>
       <c r="L14" t="n">
-        <v>551.226839918175</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M14" t="n">
         <v>825.1352431304733</v>
@@ -5308,22 +5308,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T14" t="n">
-        <v>1539.598753546618</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U14" t="n">
-        <v>1539.598753546618</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="V14" t="n">
-        <v>1539.598753546618</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="W14" t="n">
-        <v>1539.598753546618</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="X14" t="n">
-        <v>1539.598753546618</v>
+        <v>1351.84541728055</v>
       </c>
       <c r="Y14" t="n">
-        <v>1539.598753546618</v>
+        <v>950.9087442286403</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>564.0985630291309</v>
+        <v>623.8795000739441</v>
       </c>
       <c r="C15" t="n">
-        <v>430.1034917780765</v>
+        <v>547.0006495586841</v>
       </c>
       <c r="D15" t="n">
         <v>430.1034917780765</v>
@@ -5351,31 +5351,31 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H15" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I15" t="n">
-        <v>35.04977630223196</v>
+        <v>53.13964940227879</v>
       </c>
       <c r="J15" t="n">
-        <v>333.3053281020599</v>
+        <v>107.7267972274735</v>
       </c>
       <c r="K15" t="n">
-        <v>458.2561622618961</v>
+        <v>232.6776313873096</v>
       </c>
       <c r="L15" t="n">
-        <v>736.134061658692</v>
+        <v>419.4500769737224</v>
       </c>
       <c r="M15" t="n">
-        <v>961.9282277806724</v>
+        <v>645.2442430957028</v>
       </c>
       <c r="N15" t="n">
-        <v>1199.533994799269</v>
+        <v>1078.985224835823</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.897834511329</v>
+        <v>1287.349064547883</v>
       </c>
       <c r="P15" t="n">
-        <v>1567.298293732328</v>
+        <v>1446.749523768882</v>
       </c>
       <c r="Q15" t="n">
         <v>1653.63600483296</v>
@@ -5393,16 +5393,16 @@
         <v>1313.622001213774</v>
       </c>
       <c r="V15" t="n">
-        <v>1253.362705425666</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W15" t="n">
-        <v>1040.129537161995</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="X15" t="n">
-        <v>863.8035553008875</v>
+        <v>923.5844923457007</v>
       </c>
       <c r="Y15" t="n">
-        <v>704.4015956647175</v>
+        <v>764.1825327095307</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.9361904208804</v>
+        <v>915.138548543315</v>
       </c>
       <c r="C16" t="n">
-        <v>748.8428179825969</v>
+        <v>915.138548543315</v>
       </c>
       <c r="D16" t="n">
-        <v>589.348173305507</v>
+        <v>755.6439038662249</v>
       </c>
       <c r="E16" t="n">
-        <v>428.4373581738265</v>
+        <v>594.7330887345445</v>
       </c>
       <c r="F16" t="n">
-        <v>263.8062322844177</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="G16" t="n">
         <v>263.8062322844177</v>
@@ -5433,7 +5433,7 @@
         <v>122.6865769302045</v>
       </c>
       <c r="I16" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J16" t="n">
         <v>115.2836835121643</v>
@@ -5448,13 +5448,13 @@
         <v>1211.288630773262</v>
       </c>
       <c r="N16" t="n">
-        <v>1473.932141297081</v>
+        <v>1600.206101502918</v>
       </c>
       <c r="O16" t="n">
-        <v>1550.669671663194</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P16" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605795</v>
       </c>
       <c r="Q16" t="n">
         <v>1752.488815111598</v>
@@ -5463,25 +5463,25 @@
         <v>1710.14110497746</v>
       </c>
       <c r="S16" t="n">
-        <v>1540.386465992251</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="T16" t="n">
-        <v>1540.386465992251</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="U16" t="n">
-        <v>1381.521641875403</v>
+        <v>1427.395029915243</v>
       </c>
       <c r="V16" t="n">
-        <v>1107.635896814925</v>
+        <v>1153.509284854765</v>
       </c>
       <c r="W16" t="n">
-        <v>1107.635896814925</v>
+        <v>1153.509284854765</v>
       </c>
       <c r="X16" t="n">
-        <v>1107.635896814925</v>
+        <v>1153.509284854765</v>
       </c>
       <c r="Y16" t="n">
-        <v>1107.635896814925</v>
+        <v>928.7735862435294</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>881.3015803186679</v>
+        <v>1280.544994518378</v>
       </c>
       <c r="C17" t="n">
-        <v>881.3015803186679</v>
+        <v>870.4204038316477</v>
       </c>
       <c r="D17" t="n">
-        <v>881.3015803186679</v>
+        <v>870.4204038316477</v>
       </c>
       <c r="E17" t="n">
-        <v>466.9613648355646</v>
+        <v>456.0801883485444</v>
       </c>
       <c r="F17" t="n">
-        <v>45.93095278925216</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="G17" t="n">
-        <v>39.35210940780839</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H17" t="n">
-        <v>39.35210940780839</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I17" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J17" t="n">
-        <v>139.4975455796484</v>
+        <v>139.4975455796487</v>
       </c>
       <c r="K17" t="n">
-        <v>316.586776325066</v>
+        <v>316.5867763250662</v>
       </c>
       <c r="L17" t="n">
-        <v>551.2268399181747</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M17" t="n">
-        <v>825.1352431304729</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N17" t="n">
         <v>1105.344363062593</v>
@@ -5542,25 +5542,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S17" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T17" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U17" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="V17" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="W17" t="n">
-        <v>1281.944978149715</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="X17" t="n">
-        <v>881.3015803186679</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="Y17" t="n">
-        <v>881.3015803186679</v>
+        <v>1690.766174182867</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>621.246098713927</v>
+        <v>547.0006495586841</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2510274628727</v>
+        <v>547.0006495586841</v>
       </c>
       <c r="D18" t="n">
-        <v>370.3538696822652</v>
+        <v>430.1034917780765</v>
       </c>
       <c r="E18" t="n">
-        <v>249.8610536745931</v>
+        <v>309.6106757704045</v>
       </c>
       <c r="F18" t="n">
-        <v>140.9011738570977</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="G18" t="n">
-        <v>35.04977630223195</v>
+        <v>94.79939839804331</v>
       </c>
       <c r="H18" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I18" t="n">
-        <v>53.13964940227879</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J18" t="n">
-        <v>107.7267972274735</v>
+        <v>351.3952012021067</v>
       </c>
       <c r="K18" t="n">
-        <v>232.6776313873096</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L18" t="n">
-        <v>666.41861312743</v>
+        <v>663.1184809483557</v>
       </c>
       <c r="M18" t="n">
-        <v>961.9282277806722</v>
+        <v>961.9282277806724</v>
       </c>
       <c r="N18" t="n">
         <v>1199.533994799269</v>
@@ -5633,13 +5633,13 @@
         <v>1099.910474206808</v>
       </c>
       <c r="W18" t="n">
-        <v>886.6773059431367</v>
+        <v>886.677305943137</v>
       </c>
       <c r="X18" t="n">
-        <v>886.6773059431367</v>
+        <v>710.3513240820298</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.2753463069668</v>
+        <v>550.9493644458598</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.1122656273853</v>
+        <v>1086.231920981598</v>
       </c>
       <c r="C19" t="n">
-        <v>774.0188931891018</v>
+        <v>915.138548543315</v>
       </c>
       <c r="D19" t="n">
-        <v>614.5242485120118</v>
+        <v>755.6439038662249</v>
       </c>
       <c r="E19" t="n">
-        <v>453.6134333803312</v>
+        <v>594.7330887345445</v>
       </c>
       <c r="F19" t="n">
-        <v>288.9823074909225</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="G19" t="n">
-        <v>122.6865769302045</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="H19" t="n">
         <v>122.6865769302045</v>
       </c>
       <c r="I19" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J19" t="n">
-        <v>50.2823198808279</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K19" t="n">
-        <v>288.3026372943938</v>
+        <v>378.543013001709</v>
       </c>
       <c r="L19" t="n">
-        <v>687.3072733258264</v>
+        <v>481.546932084078</v>
       </c>
       <c r="M19" t="n">
-        <v>1121.048255065947</v>
+        <v>915.2879138241984</v>
       </c>
       <c r="N19" t="n">
-        <v>1213.034657823963</v>
+        <v>1339.308618029801</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.772188190076</v>
+        <v>1416.046148395913</v>
       </c>
       <c r="P19" t="n">
-        <v>1608.611787399958</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q19" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R19" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S19" t="n">
-        <v>1636.617335123791</v>
+        <v>1582.734176126388</v>
       </c>
       <c r="T19" t="n">
-        <v>1636.617335123791</v>
+        <v>1582.734176126388</v>
       </c>
       <c r="U19" t="n">
-        <v>1636.617335123791</v>
+        <v>1582.734176126388</v>
       </c>
       <c r="V19" t="n">
-        <v>1636.617335123791</v>
+        <v>1549.31148173315</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.547670632665</v>
+        <v>1549.31148173315</v>
       </c>
       <c r="X19" t="n">
-        <v>1357.547670632665</v>
+        <v>1310.967619592834</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.81197202143</v>
+        <v>1086.231920981598</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1094.661910467468</v>
+        <v>1342.267635447108</v>
       </c>
       <c r="C20" t="n">
-        <v>684.5373197807384</v>
+        <v>932.1430447603783</v>
       </c>
       <c r="D20" t="n">
-        <v>684.5373197807384</v>
+        <v>527.6791148534388</v>
       </c>
       <c r="E20" t="n">
-        <v>684.5373197807384</v>
+        <v>527.6791148534388</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1623143811079</v>
+        <v>106.6487028071264</v>
       </c>
       <c r="G20" t="n">
-        <v>324.1623143811079</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H20" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I20" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J20" t="n">
-        <v>139.4975455796489</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K20" t="n">
-        <v>316.5867763250665</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L20" t="n">
-        <v>551.2268399181753</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M20" t="n">
         <v>825.1352431304736</v>
@@ -5785,19 +5785,19 @@
         <v>1752.488815111598</v>
       </c>
       <c r="U20" t="n">
-        <v>1495.598583519378</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="V20" t="n">
-        <v>1495.598583519378</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="W20" t="n">
-        <v>1495.598583519378</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="X20" t="n">
-        <v>1495.598583519378</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="Y20" t="n">
-        <v>1094.661910467468</v>
+        <v>1752.488815111598</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>547.0006495586841</v>
+        <v>680.9957208097385</v>
       </c>
       <c r="C21" t="n">
         <v>547.0006495586841</v>
@@ -5825,10 +5825,10 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H21" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I21" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J21" t="n">
         <v>333.3053281020599</v>
@@ -5837,19 +5837,19 @@
         <v>458.2561622618961</v>
       </c>
       <c r="L21" t="n">
-        <v>645.0286078483089</v>
+        <v>645.028607848309</v>
       </c>
       <c r="M21" t="n">
-        <v>1049.897944257654</v>
+        <v>870.8227739702894</v>
       </c>
       <c r="N21" t="n">
-        <v>1287.50371127625</v>
+        <v>1108.428540988886</v>
       </c>
       <c r="O21" t="n">
-        <v>1495.86755098831</v>
+        <v>1316.792380700946</v>
       </c>
       <c r="P21" t="n">
-        <v>1655.268010209309</v>
+        <v>1476.192839921946</v>
       </c>
       <c r="Q21" t="n">
         <v>1741.605721309941</v>
@@ -5870,13 +5870,13 @@
         <v>1099.910474206808</v>
       </c>
       <c r="W21" t="n">
-        <v>886.677305943137</v>
+        <v>886.6773059431367</v>
       </c>
       <c r="X21" t="n">
-        <v>710.3513240820298</v>
+        <v>886.6773059431367</v>
       </c>
       <c r="Y21" t="n">
-        <v>687.3036821942708</v>
+        <v>727.2753463069668</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.4415457437905</v>
+        <v>691.1797344386946</v>
       </c>
       <c r="C22" t="n">
-        <v>589.348173305507</v>
+        <v>520.0863620004111</v>
       </c>
       <c r="D22" t="n">
-        <v>589.348173305507</v>
+        <v>360.5917173233212</v>
       </c>
       <c r="E22" t="n">
-        <v>428.4373581738265</v>
+        <v>199.6809021916407</v>
       </c>
       <c r="F22" t="n">
-        <v>263.8062322844177</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="G22" t="n">
-        <v>263.8062322844177</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H22" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I22" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J22" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K22" t="n">
-        <v>172.2628194159949</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L22" t="n">
-        <v>571.2674554474274</v>
+        <v>301.0956959326182</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.008437187548</v>
+        <v>734.8366776727386</v>
       </c>
       <c r="N22" t="n">
-        <v>1339.308618029801</v>
+        <v>1158.857381878341</v>
       </c>
       <c r="O22" t="n">
-        <v>1416.046148395913</v>
+        <v>1550.669671663194</v>
       </c>
       <c r="P22" t="n">
-        <v>1734.885747605796</v>
+        <v>1608.611787399958</v>
       </c>
       <c r="Q22" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R22" t="n">
-        <v>1710.14110497746</v>
+        <v>1717.948741140666</v>
       </c>
       <c r="S22" t="n">
-        <v>1540.386465992251</v>
+        <v>1717.948741140666</v>
       </c>
       <c r="T22" t="n">
-        <v>1540.386465992251</v>
+        <v>1482.479006130615</v>
       </c>
       <c r="U22" t="n">
-        <v>1257.640390930033</v>
+        <v>1482.479006130615</v>
       </c>
       <c r="V22" t="n">
-        <v>1257.640390930033</v>
+        <v>1208.593261070137</v>
       </c>
       <c r="W22" t="n">
-        <v>1257.640390930033</v>
+        <v>929.5235965790112</v>
       </c>
       <c r="X22" t="n">
-        <v>1019.296528789717</v>
+        <v>691.1797344386946</v>
       </c>
       <c r="Y22" t="n">
-        <v>794.5608301784815</v>
+        <v>691.1797344386946</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>860.2923571447016</v>
+        <v>608.669779918758</v>
       </c>
       <c r="C23" t="n">
-        <v>860.2923571447016</v>
+        <v>608.669779918758</v>
       </c>
       <c r="D23" t="n">
-        <v>860.2923571447016</v>
+        <v>608.669779918758</v>
       </c>
       <c r="E23" t="n">
-        <v>445.9521416615983</v>
+        <v>608.669779918758</v>
       </c>
       <c r="F23" t="n">
-        <v>445.9521416615983</v>
+        <v>187.6393678724455</v>
       </c>
       <c r="G23" t="n">
-        <v>39.35210940780838</v>
+        <v>187.6393678724455</v>
       </c>
       <c r="H23" t="n">
-        <v>39.35210940780838</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I23" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J23" t="n">
-        <v>139.4975455796488</v>
+        <v>139.4975455796487</v>
       </c>
       <c r="K23" t="n">
-        <v>316.5867763250664</v>
+        <v>316.5867763250662</v>
       </c>
       <c r="L23" t="n">
-        <v>551.226839918175</v>
+        <v>551.2268399181748</v>
       </c>
       <c r="M23" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N23" t="n">
         <v>1105.344363062593</v>
@@ -6019,22 +6019,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T23" t="n">
-        <v>1539.598753546618</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U23" t="n">
-        <v>1539.598753546618</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="V23" t="n">
-        <v>1189.761198883099</v>
+        <v>1402.651260448079</v>
       </c>
       <c r="W23" t="n">
-        <v>1189.761198883099</v>
+        <v>1018.890959583247</v>
       </c>
       <c r="X23" t="n">
-        <v>1189.761198883099</v>
+        <v>1018.890959583247</v>
       </c>
       <c r="Y23" t="n">
-        <v>1189.761198883099</v>
+        <v>1018.890959583247</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>572.035840992243</v>
+        <v>575.1443232548727</v>
       </c>
       <c r="C24" t="n">
-        <v>438.0407697411887</v>
+        <v>441.1492520038183</v>
       </c>
       <c r="D24" t="n">
-        <v>321.1436119605811</v>
+        <v>324.2520942232107</v>
       </c>
       <c r="E24" t="n">
-        <v>200.6507959529091</v>
+        <v>203.7592782155387</v>
       </c>
       <c r="F24" t="n">
-        <v>200.6507959529091</v>
+        <v>94.79939839804331</v>
       </c>
       <c r="G24" t="n">
         <v>94.79939839804331</v>
       </c>
       <c r="H24" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I24" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63692412742665</v>
+        <v>89.63692412742667</v>
       </c>
       <c r="K24" t="n">
-        <v>214.5877582872628</v>
+        <v>362.9908100301388</v>
       </c>
       <c r="L24" t="n">
-        <v>401.3602038736757</v>
+        <v>549.7632556165518</v>
       </c>
       <c r="M24" t="n">
-        <v>736.5510857526119</v>
+        <v>775.5574217385322</v>
       </c>
       <c r="N24" t="n">
-        <v>974.1568527712084</v>
+        <v>1013.163188757129</v>
       </c>
       <c r="O24" t="n">
-        <v>1407.897834511329</v>
+        <v>1221.527028469189</v>
       </c>
       <c r="P24" t="n">
-        <v>1567.298293732328</v>
+        <v>1655.26801020931</v>
       </c>
       <c r="Q24" t="n">
-        <v>1653.63600483296</v>
+        <v>1741.605721309941</v>
       </c>
       <c r="R24" t="n">
         <v>1752.488815111598</v>
@@ -6098,22 +6098,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T24" t="n">
-        <v>1510.897896606424</v>
+        <v>1510.897896606425</v>
       </c>
       <c r="U24" t="n">
-        <v>1475.011510395744</v>
+        <v>1313.622001213775</v>
       </c>
       <c r="V24" t="n">
-        <v>1261.299983388778</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W24" t="n">
-        <v>1048.066815125107</v>
+        <v>1051.175297387736</v>
       </c>
       <c r="X24" t="n">
-        <v>871.7408332639997</v>
+        <v>874.8493155266293</v>
       </c>
       <c r="Y24" t="n">
-        <v>712.3388736278297</v>
+        <v>715.4473558904593</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>624.7068058186147</v>
+        <v>692.8443391100041</v>
       </c>
       <c r="C25" t="n">
-        <v>453.6134333803312</v>
+        <v>521.7509666717206</v>
       </c>
       <c r="D25" t="n">
-        <v>453.6134333803312</v>
+        <v>362.2563219946305</v>
       </c>
       <c r="E25" t="n">
-        <v>453.6134333803312</v>
+        <v>201.34550686295</v>
       </c>
       <c r="F25" t="n">
-        <v>288.9823074909225</v>
+        <v>201.34550686295</v>
       </c>
       <c r="G25" t="n">
-        <v>122.6865769302044</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H25" t="n">
-        <v>122.6865769302044</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I25" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J25" t="n">
-        <v>50.28231988082791</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K25" t="n">
-        <v>107.2614557846585</v>
+        <v>378.543013001709</v>
       </c>
       <c r="L25" t="n">
-        <v>506.2660918160911</v>
+        <v>777.5476490331416</v>
       </c>
       <c r="M25" t="n">
-        <v>940.0070735562115</v>
+        <v>868.5147480934394</v>
       </c>
       <c r="N25" t="n">
-        <v>1285.131342084178</v>
+        <v>1213.034657823964</v>
       </c>
       <c r="O25" t="n">
-        <v>1676.943631869031</v>
+        <v>1289.772188190077</v>
       </c>
       <c r="P25" t="n">
-        <v>1734.885747605795</v>
+        <v>1608.611787399959</v>
       </c>
       <c r="Q25" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R25" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S25" t="n">
-        <v>1540.386465992251</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T25" t="n">
-        <v>1304.916730982199</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U25" t="n">
-        <v>1304.916730982199</v>
+        <v>1469.742740049381</v>
       </c>
       <c r="V25" t="n">
-        <v>1031.030985921721</v>
+        <v>1195.856994988903</v>
       </c>
       <c r="W25" t="n">
-        <v>1031.030985921721</v>
+        <v>1105.279744115284</v>
       </c>
       <c r="X25" t="n">
-        <v>792.6871237814046</v>
+        <v>1105.279744115284</v>
       </c>
       <c r="Y25" t="n">
-        <v>792.6871237814046</v>
+        <v>880.5440455040484</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>692.7564831215589</v>
+        <v>1042.594037785078</v>
       </c>
       <c r="C26" t="n">
-        <v>692.7564831215589</v>
+        <v>1042.594037785078</v>
       </c>
       <c r="D26" t="n">
-        <v>692.7564831215589</v>
+        <v>1042.594037785078</v>
       </c>
       <c r="E26" t="n">
-        <v>278.4162676384556</v>
+        <v>1042.594037785078</v>
       </c>
       <c r="F26" t="n">
-        <v>278.4162676384556</v>
+        <v>621.5636257387657</v>
       </c>
       <c r="G26" t="n">
-        <v>35.04977630223196</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="H26" t="n">
         <v>35.04977630223196</v>
@@ -6229,19 +6229,19 @@
         <v>139.4975455796487</v>
       </c>
       <c r="K26" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250663</v>
       </c>
       <c r="L26" t="n">
-        <v>551.2268399181748</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M26" t="n">
-        <v>825.1352431304731</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N26" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O26" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P26" t="n">
         <v>1571.77921458767</v>
@@ -6262,16 +6262,16 @@
         <v>1452.815217449568</v>
       </c>
       <c r="V26" t="n">
-        <v>1102.977662786048</v>
+        <v>1452.815217449568</v>
       </c>
       <c r="W26" t="n">
-        <v>1102.977662786048</v>
+        <v>1452.815217449568</v>
       </c>
       <c r="X26" t="n">
-        <v>1102.977662786048</v>
+        <v>1452.815217449568</v>
       </c>
       <c r="Y26" t="n">
-        <v>1102.977662786048</v>
+        <v>1452.815217449568</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>680.9957208097385</v>
+        <v>497.4852075778984</v>
       </c>
       <c r="C27" t="n">
-        <v>547.0006495586841</v>
+        <v>363.4901363268442</v>
       </c>
       <c r="D27" t="n">
-        <v>430.1034917780765</v>
+        <v>246.5929785462366</v>
       </c>
       <c r="E27" t="n">
-        <v>309.6106757704045</v>
+        <v>126.1001625385645</v>
       </c>
       <c r="F27" t="n">
-        <v>200.6507959529091</v>
+        <v>126.1001625385645</v>
       </c>
       <c r="G27" t="n">
         <v>94.79939839804331</v>
@@ -6302,55 +6302,55 @@
         <v>35.04977630223196</v>
       </c>
       <c r="I27" t="n">
-        <v>35.04977630223196</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63692412742667</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K27" t="n">
-        <v>214.5877582872628</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L27" t="n">
-        <v>401.3602038736757</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M27" t="n">
-        <v>627.1543699956561</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N27" t="n">
-        <v>864.7601370142527</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O27" t="n">
-        <v>1073.123976726313</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P27" t="n">
-        <v>1232.524435947312</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q27" t="n">
-        <v>1666.265417687433</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R27" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S27" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T27" t="n">
-        <v>1510.897896606425</v>
+        <v>1597.73677237405</v>
       </c>
       <c r="U27" t="n">
-        <v>1313.622001213775</v>
+        <v>1400.4608769814</v>
       </c>
       <c r="V27" t="n">
-        <v>1099.910474206808</v>
+        <v>1186.749349974433</v>
       </c>
       <c r="W27" t="n">
-        <v>1099.910474206808</v>
+        <v>973.5161817107622</v>
       </c>
       <c r="X27" t="n">
-        <v>923.5844923457012</v>
+        <v>797.1901998496551</v>
       </c>
       <c r="Y27" t="n">
-        <v>821.2987534453251</v>
+        <v>637.7882402134851</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>925.321105849918</v>
+        <v>1086.231920981598</v>
       </c>
       <c r="C28" t="n">
-        <v>754.2277334116345</v>
+        <v>915.138548543315</v>
       </c>
       <c r="D28" t="n">
-        <v>594.7330887345445</v>
+        <v>755.6439038662249</v>
       </c>
       <c r="E28" t="n">
         <v>594.7330887345445</v>
@@ -6384,22 +6384,22 @@
         <v>35.04977630223196</v>
       </c>
       <c r="J28" t="n">
-        <v>50.28231988082791</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K28" t="n">
-        <v>107.2614557846585</v>
+        <v>172.2628194159949</v>
       </c>
       <c r="L28" t="n">
-        <v>506.2660918160911</v>
+        <v>257.2883442124045</v>
       </c>
       <c r="M28" t="n">
-        <v>940.0070735562117</v>
+        <v>691.029325952525</v>
       </c>
       <c r="N28" t="n">
-        <v>1031.993476314228</v>
+        <v>1115.050030158127</v>
       </c>
       <c r="O28" t="n">
-        <v>1289.772188190077</v>
+        <v>1506.862319942981</v>
       </c>
       <c r="P28" t="n">
         <v>1608.611787399959</v>
@@ -6408,28 +6408,28 @@
         <v>1752.488815111598</v>
       </c>
       <c r="R28" t="n">
-        <v>1752.488815111598</v>
+        <v>1710.141104977461</v>
       </c>
       <c r="S28" t="n">
-        <v>1582.734176126389</v>
+        <v>1540.386465992251</v>
       </c>
       <c r="T28" t="n">
-        <v>1582.734176126389</v>
+        <v>1304.9167309822</v>
       </c>
       <c r="U28" t="n">
-        <v>1299.988101064171</v>
+        <v>1304.9167309822</v>
       </c>
       <c r="V28" t="n">
-        <v>1204.390770341044</v>
+        <v>1304.9167309822</v>
       </c>
       <c r="W28" t="n">
-        <v>925.321105849918</v>
+        <v>1273.931627375643</v>
       </c>
       <c r="X28" t="n">
-        <v>925.321105849918</v>
+        <v>1273.931627375643</v>
       </c>
       <c r="Y28" t="n">
-        <v>925.321105849918</v>
+        <v>1273.931627375643</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1342.267635447108</v>
+        <v>866.2047790352743</v>
       </c>
       <c r="C29" t="n">
-        <v>1342.267635447108</v>
+        <v>456.0801883485444</v>
       </c>
       <c r="D29" t="n">
-        <v>937.8037055401687</v>
+        <v>456.0801883485444</v>
       </c>
       <c r="E29" t="n">
-        <v>523.4634900570654</v>
+        <v>456.0801883485444</v>
       </c>
       <c r="F29" t="n">
-        <v>523.4634900570654</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="G29" t="n">
-        <v>116.8634578032755</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H29" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I29" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J29" t="n">
-        <v>139.4975455796488</v>
+        <v>139.4975455796487</v>
       </c>
       <c r="K29" t="n">
-        <v>316.5867763250664</v>
+        <v>316.5867763250663</v>
       </c>
       <c r="L29" t="n">
-        <v>551.226839918175</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M29" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N29" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O29" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P29" t="n">
         <v>1571.77921458767</v>
@@ -6499,16 +6499,16 @@
         <v>1752.488815111598</v>
       </c>
       <c r="V29" t="n">
-        <v>1752.488815111598</v>
+        <v>1660.186259564595</v>
       </c>
       <c r="W29" t="n">
-        <v>1752.488815111598</v>
+        <v>1276.425958699764</v>
       </c>
       <c r="X29" t="n">
-        <v>1752.488815111598</v>
+        <v>1276.425958699764</v>
       </c>
       <c r="Y29" t="n">
-        <v>1752.488815111598</v>
+        <v>1276.425958699764</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>560.5029048020664</v>
+        <v>497.4852075778984</v>
       </c>
       <c r="C30" t="n">
-        <v>426.5078335510121</v>
+        <v>363.4901363268442</v>
       </c>
       <c r="D30" t="n">
-        <v>309.6106757704045</v>
+        <v>246.5929785462366</v>
       </c>
       <c r="E30" t="n">
-        <v>309.6106757704045</v>
+        <v>144.0096561197274</v>
       </c>
       <c r="F30" t="n">
-        <v>200.6507959529091</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="G30" t="n">
-        <v>94.79939839804331</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H30" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I30" t="n">
-        <v>35.04977630223195</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J30" t="n">
-        <v>333.3053281020599</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K30" t="n">
-        <v>458.2561622618961</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L30" t="n">
-        <v>645.028607848309</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M30" t="n">
-        <v>870.8227739702894</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N30" t="n">
-        <v>1108.428540988886</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O30" t="n">
-        <v>1407.897834511329</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P30" t="n">
-        <v>1567.298293732328</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q30" t="n">
         <v>1653.63600483296</v>
@@ -6569,25 +6569,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S30" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T30" t="n">
-        <v>1510.897896606424</v>
+        <v>1597.73677237405</v>
       </c>
       <c r="U30" t="n">
-        <v>1463.478574205568</v>
+        <v>1400.4608769814</v>
       </c>
       <c r="V30" t="n">
-        <v>1249.767047198602</v>
+        <v>1186.749349974433</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.53387893493</v>
+        <v>973.5161817107622</v>
       </c>
       <c r="X30" t="n">
-        <v>860.207897073823</v>
+        <v>797.1901998496551</v>
       </c>
       <c r="Y30" t="n">
-        <v>700.805937437653</v>
+        <v>637.7882402134851</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.1353214336278</v>
+        <v>218.2380347361737</v>
       </c>
       <c r="C31" t="n">
-        <v>395.0419489953443</v>
+        <v>218.2380347361737</v>
       </c>
       <c r="D31" t="n">
-        <v>395.0419489953443</v>
+        <v>218.2380347361737</v>
       </c>
       <c r="E31" t="n">
-        <v>234.1311338636638</v>
+        <v>218.2380347361737</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1311338636638</v>
+        <v>218.2380347361737</v>
       </c>
       <c r="G31" t="n">
-        <v>176.1694316564452</v>
+        <v>218.2380347361737</v>
       </c>
       <c r="H31" t="n">
-        <v>35.04977630223195</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="I31" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J31" t="n">
         <v>50.28231988082791</v>
@@ -6627,46 +6627,46 @@
         <v>107.2614557846585</v>
       </c>
       <c r="L31" t="n">
-        <v>192.2869805810681</v>
+        <v>506.2660918160911</v>
       </c>
       <c r="M31" t="n">
-        <v>600.2131544054577</v>
+        <v>600.2131544054581</v>
       </c>
       <c r="N31" t="n">
         <v>1024.23385861106</v>
       </c>
       <c r="O31" t="n">
-        <v>1416.046148395913</v>
+        <v>1416.046148395914</v>
       </c>
       <c r="P31" t="n">
-        <v>1734.885747605795</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q31" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R31" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S31" t="n">
-        <v>1540.386465992251</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T31" t="n">
-        <v>1540.386465992251</v>
+        <v>1517.019080101547</v>
       </c>
       <c r="U31" t="n">
-        <v>1257.640390930033</v>
+        <v>1234.273005039329</v>
       </c>
       <c r="V31" t="n">
-        <v>1257.640390930033</v>
+        <v>960.3872599788513</v>
       </c>
       <c r="W31" t="n">
-        <v>978.5707264389075</v>
+        <v>681.3175954877256</v>
       </c>
       <c r="X31" t="n">
-        <v>978.5707264389075</v>
+        <v>442.973733347409</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.8350278276722</v>
+        <v>218.2380347361737</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>488.7270414250777</v>
+        <v>1255.484099350058</v>
       </c>
       <c r="C32" t="n">
-        <v>488.7270414250777</v>
+        <v>845.3595086633278</v>
       </c>
       <c r="D32" t="n">
-        <v>84.2631115181382</v>
+        <v>845.3595086633278</v>
       </c>
       <c r="E32" t="n">
-        <v>84.2631115181382</v>
+        <v>431.0192931802245</v>
       </c>
       <c r="F32" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="G32" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H32" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I32" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J32" t="n">
         <v>139.4975455796487</v>
       </c>
       <c r="K32" t="n">
-        <v>316.586776325066</v>
+        <v>316.5867763250663</v>
       </c>
       <c r="L32" t="n">
-        <v>551.2268399181748</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M32" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N32" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O32" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P32" t="n">
         <v>1571.77921458767</v>
@@ -6727,25 +6727,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S32" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T32" t="n">
-        <v>1539.598753546618</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U32" t="n">
-        <v>1282.708521954399</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.708521954399</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="W32" t="n">
-        <v>898.9482210895671</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="X32" t="n">
-        <v>898.9482210895671</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="Y32" t="n">
-        <v>898.9482210895671</v>
+        <v>1665.705279014547</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.9957208097385</v>
+        <v>607.9222272029232</v>
       </c>
       <c r="C33" t="n">
-        <v>547.0006495586841</v>
+        <v>473.9271559518689</v>
       </c>
       <c r="D33" t="n">
-        <v>430.1034917780765</v>
+        <v>357.0299981712613</v>
       </c>
       <c r="E33" t="n">
         <v>309.6106757704045</v>
@@ -6773,31 +6773,31 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H33" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I33" t="n">
-        <v>35.04977630223195</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63692412742665</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K33" t="n">
-        <v>214.5877582872628</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L33" t="n">
-        <v>401.3602038736757</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M33" t="n">
-        <v>627.1543699956561</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N33" t="n">
-        <v>864.7601370142527</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.557311992208</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P33" t="n">
-        <v>1567.298293732328</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q33" t="n">
         <v>1653.63600483296</v>
@@ -6809,22 +6809,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T33" t="n">
-        <v>1665.649939343973</v>
+        <v>1510.897896606425</v>
       </c>
       <c r="U33" t="n">
-        <v>1468.374043951323</v>
+        <v>1510.897896606425</v>
       </c>
       <c r="V33" t="n">
-        <v>1254.662516944356</v>
+        <v>1297.186369599458</v>
       </c>
       <c r="W33" t="n">
-        <v>1041.429348680685</v>
+        <v>1083.953201335787</v>
       </c>
       <c r="X33" t="n">
-        <v>980.7007130814951</v>
+        <v>907.6272194746798</v>
       </c>
       <c r="Y33" t="n">
-        <v>821.2987534453251</v>
+        <v>748.2252598385098</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>620.9864950608865</v>
+        <v>998.595120353626</v>
       </c>
       <c r="C34" t="n">
-        <v>449.893122622603</v>
+        <v>827.5017479153425</v>
       </c>
       <c r="D34" t="n">
-        <v>449.893122622603</v>
+        <v>668.0071032382525</v>
       </c>
       <c r="E34" t="n">
-        <v>288.9823074909225</v>
+        <v>507.096288106572</v>
       </c>
       <c r="F34" t="n">
-        <v>288.9823074909225</v>
+        <v>342.4651622171633</v>
       </c>
       <c r="G34" t="n">
-        <v>122.6865769302044</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H34" t="n">
-        <v>122.6865769302044</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I34" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J34" t="n">
         <v>115.2836835121643</v>
@@ -6867,43 +6867,43 @@
         <v>571.2674554474276</v>
       </c>
       <c r="M34" t="n">
-        <v>734.8366776727386</v>
+        <v>662.2345545077253</v>
       </c>
       <c r="N34" t="n">
-        <v>1158.857381878341</v>
+        <v>1086.255258713327</v>
       </c>
       <c r="O34" t="n">
-        <v>1550.669671663194</v>
+        <v>1478.067548498181</v>
       </c>
       <c r="P34" t="n">
-        <v>1608.611787399958</v>
+        <v>1608.611787399959</v>
       </c>
       <c r="Q34" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R34" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S34" t="n">
-        <v>1540.386465992251</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="T34" t="n">
-        <v>1304.916730982199</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="U34" t="n">
-        <v>1304.916730982199</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.916730982199</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="W34" t="n">
-        <v>1025.847066491074</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="X34" t="n">
-        <v>787.503204350757</v>
+        <v>1411.030525358906</v>
       </c>
       <c r="Y34" t="n">
-        <v>787.503204350757</v>
+        <v>1186.29482674767</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>862.6802206023344</v>
+        <v>522.6497876263898</v>
       </c>
       <c r="C35" t="n">
-        <v>862.6802206023344</v>
+        <v>112.5251969396598</v>
       </c>
       <c r="D35" t="n">
-        <v>862.6802206023344</v>
+        <v>112.5251969396598</v>
       </c>
       <c r="E35" t="n">
-        <v>862.6802206023344</v>
+        <v>112.5251969396598</v>
       </c>
       <c r="F35" t="n">
-        <v>441.6498085560219</v>
+        <v>112.5251969396598</v>
       </c>
       <c r="G35" t="n">
-        <v>35.04977630223196</v>
+        <v>112.5251969396598</v>
       </c>
       <c r="H35" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I35" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J35" t="n">
-        <v>139.4975455796487</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K35" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L35" t="n">
-        <v>551.2268399181748</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M35" t="n">
-        <v>825.1352431304731</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N35" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O35" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P35" t="n">
         <v>1571.77921458767</v>
@@ -6964,25 +6964,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S35" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T35" t="n">
-        <v>1503.330753059385</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="U35" t="n">
-        <v>1246.440521467166</v>
+        <v>1282.708521954399</v>
       </c>
       <c r="V35" t="n">
-        <v>1246.440521467166</v>
+        <v>932.8709672908792</v>
       </c>
       <c r="W35" t="n">
-        <v>862.6802206023344</v>
+        <v>932.8709672908792</v>
       </c>
       <c r="X35" t="n">
-        <v>862.6802206023344</v>
+        <v>932.8709672908792</v>
       </c>
       <c r="Y35" t="n">
-        <v>862.6802206023344</v>
+        <v>932.8709672908792</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>564.0985630291309</v>
+        <v>438.0407697411887</v>
       </c>
       <c r="C36" t="n">
-        <v>430.1034917780765</v>
+        <v>438.0407697411887</v>
       </c>
       <c r="D36" t="n">
-        <v>430.1034917780765</v>
+        <v>321.1436119605811</v>
       </c>
       <c r="E36" t="n">
-        <v>309.6106757704045</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="F36" t="n">
         <v>200.6507959529091</v>
@@ -7010,7 +7010,7 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H36" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I36" t="n">
         <v>53.13964940227881</v>
@@ -7022,13 +7022,13 @@
         <v>232.6776313873097</v>
       </c>
       <c r="L36" t="n">
-        <v>419.4500769737226</v>
+        <v>539.9988469371676</v>
       </c>
       <c r="M36" t="n">
-        <v>853.1910587138432</v>
+        <v>765.7930130591481</v>
       </c>
       <c r="N36" t="n">
-        <v>1199.533994799269</v>
+        <v>1199.533994799268</v>
       </c>
       <c r="O36" t="n">
         <v>1407.897834511329</v>
@@ -7043,25 +7043,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S36" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="T36" t="n">
-        <v>1597.73677237405</v>
+        <v>1510.897896606424</v>
       </c>
       <c r="U36" t="n">
-        <v>1400.4608769814</v>
+        <v>1313.622001213774</v>
       </c>
       <c r="V36" t="n">
-        <v>1186.749349974433</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W36" t="n">
-        <v>973.5161817107622</v>
+        <v>886.6773059431367</v>
       </c>
       <c r="X36" t="n">
-        <v>863.8035553008875</v>
+        <v>710.3513240820296</v>
       </c>
       <c r="Y36" t="n">
-        <v>704.4015956647175</v>
+        <v>550.9493644458596</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>797.4349573087469</v>
+        <v>134.6694344173974</v>
       </c>
       <c r="C37" t="n">
-        <v>797.4349573087469</v>
+        <v>134.6694344173974</v>
       </c>
       <c r="D37" t="n">
-        <v>755.6439038662249</v>
+        <v>134.6694344173974</v>
       </c>
       <c r="E37" t="n">
-        <v>594.7330887345445</v>
+        <v>134.6694344173974</v>
       </c>
       <c r="F37" t="n">
-        <v>430.1019628451357</v>
+        <v>134.6694344173974</v>
       </c>
       <c r="G37" t="n">
-        <v>263.8062322844177</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H37" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I37" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J37" t="n">
         <v>115.2836835121643</v>
@@ -7101,46 +7101,46 @@
         <v>172.2628194159949</v>
       </c>
       <c r="L37" t="n">
-        <v>301.0956959326185</v>
+        <v>571.2674554474276</v>
       </c>
       <c r="M37" t="n">
-        <v>734.836677672739</v>
+        <v>861.1106378785756</v>
       </c>
       <c r="N37" t="n">
-        <v>1158.857381878341</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O37" t="n">
-        <v>1550.669671663195</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P37" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605795</v>
       </c>
       <c r="Q37" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R37" t="n">
-        <v>1710.141104977461</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S37" t="n">
-        <v>1540.386465992251</v>
+        <v>1582.734176126388</v>
       </c>
       <c r="T37" t="n">
-        <v>1304.9167309822</v>
+        <v>1347.264441116337</v>
       </c>
       <c r="U37" t="n">
-        <v>1022.170655919982</v>
+        <v>1064.518366054119</v>
       </c>
       <c r="V37" t="n">
-        <v>1022.170655919982</v>
+        <v>1064.518366054119</v>
       </c>
       <c r="W37" t="n">
-        <v>1022.170655919982</v>
+        <v>785.4487015629936</v>
       </c>
       <c r="X37" t="n">
-        <v>1022.170655919982</v>
+        <v>547.1048394226771</v>
       </c>
       <c r="Y37" t="n">
-        <v>797.4349573087469</v>
+        <v>322.3691408114418</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>870.4204038316477</v>
+        <v>866.2047790352743</v>
       </c>
       <c r="C38" t="n">
-        <v>870.4204038316477</v>
+        <v>456.0801883485444</v>
       </c>
       <c r="D38" t="n">
-        <v>870.4204038316477</v>
+        <v>456.0801883485444</v>
       </c>
       <c r="E38" t="n">
         <v>456.0801883485444</v>
       </c>
       <c r="F38" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="G38" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H38" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I38" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J38" t="n">
-        <v>139.4975455796484</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K38" t="n">
-        <v>316.586776325066</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L38" t="n">
-        <v>551.2268399181746</v>
+        <v>551.226839918175</v>
       </c>
       <c r="M38" t="n">
-        <v>825.1352431304731</v>
+        <v>825.1352431304733</v>
       </c>
       <c r="N38" t="n">
         <v>1105.344363062593</v>
@@ -7213,13 +7213,13 @@
         <v>1752.488815111598</v>
       </c>
       <c r="W38" t="n">
-        <v>1672.000474714605</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="X38" t="n">
-        <v>1271.357076883558</v>
+        <v>1351.84541728055</v>
       </c>
       <c r="Y38" t="n">
-        <v>870.4204038316477</v>
+        <v>950.9087442286403</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>426.5078335510121</v>
+        <v>560.5029048020664</v>
       </c>
       <c r="C39" t="n">
         <v>426.5078335510121</v>
@@ -7247,25 +7247,25 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H39" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I39" t="n">
-        <v>35.04977630223196</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J39" t="n">
-        <v>333.3053281020599</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K39" t="n">
-        <v>458.2561622618961</v>
+        <v>549.3616160722786</v>
       </c>
       <c r="L39" t="n">
-        <v>645.028607848309</v>
+        <v>736.1340616586915</v>
       </c>
       <c r="M39" t="n">
-        <v>870.8227739702894</v>
+        <v>961.9282277806719</v>
       </c>
       <c r="N39" t="n">
-        <v>1199.533994799269</v>
+        <v>1199.533994799268</v>
       </c>
       <c r="O39" t="n">
         <v>1407.897834511329</v>
@@ -7283,22 +7283,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T39" t="n">
-        <v>1526.759398347163</v>
+        <v>1510.897896606424</v>
       </c>
       <c r="U39" t="n">
-        <v>1329.483502954513</v>
+        <v>1313.622001213774</v>
       </c>
       <c r="V39" t="n">
-        <v>1115.771975947547</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W39" t="n">
-        <v>902.538807683876</v>
+        <v>886.6773059431367</v>
       </c>
       <c r="X39" t="n">
-        <v>726.2128258227688</v>
+        <v>710.3513240820296</v>
       </c>
       <c r="Y39" t="n">
-        <v>566.8108661865988</v>
+        <v>700.805937437653</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.8123474967032</v>
+        <v>381.8736265594533</v>
       </c>
       <c r="C40" t="n">
-        <v>446.8123474967032</v>
+        <v>210.7802541211698</v>
       </c>
       <c r="D40" t="n">
-        <v>287.3177028196132</v>
+        <v>210.7802541211698</v>
       </c>
       <c r="E40" t="n">
-        <v>287.3177028196132</v>
+        <v>210.7802541211698</v>
       </c>
       <c r="F40" t="n">
-        <v>122.6865769302045</v>
+        <v>46.1491282317611</v>
       </c>
       <c r="G40" t="n">
-        <v>122.6865769302045</v>
+        <v>46.1491282317611</v>
       </c>
       <c r="H40" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I40" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J40" t="n">
         <v>50.28231988082791</v>
       </c>
       <c r="K40" t="n">
-        <v>313.5416493703726</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L40" t="n">
-        <v>712.5462854018053</v>
+        <v>427.3696561384552</v>
       </c>
       <c r="M40" t="n">
-        <v>1146.287267141926</v>
+        <v>861.1106378785756</v>
       </c>
       <c r="N40" t="n">
-        <v>1570.307971347528</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O40" t="n">
-        <v>1676.943631869032</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P40" t="n">
-        <v>1734.885747605796</v>
+        <v>1734.885747605795</v>
       </c>
       <c r="Q40" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R40" t="n">
-        <v>1710.141104977461</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S40" t="n">
-        <v>1540.386465992251</v>
+        <v>1582.734176126388</v>
       </c>
       <c r="T40" t="n">
-        <v>1304.9167309822</v>
+        <v>1347.264441116337</v>
       </c>
       <c r="U40" t="n">
-        <v>1022.170655919982</v>
+        <v>1347.264441116337</v>
       </c>
       <c r="V40" t="n">
-        <v>748.2849108595042</v>
+        <v>1073.378696055859</v>
       </c>
       <c r="W40" t="n">
-        <v>469.2152463683785</v>
+        <v>794.309031564733</v>
       </c>
       <c r="X40" t="n">
-        <v>469.2152463683785</v>
+        <v>794.309031564733</v>
       </c>
       <c r="Y40" t="n">
-        <v>469.2152463683785</v>
+        <v>569.5733329534977</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>870.5071121408507</v>
+        <v>779.5400192186098</v>
       </c>
       <c r="C41" t="n">
-        <v>460.3825214541208</v>
+        <v>369.4154285318799</v>
       </c>
       <c r="D41" t="n">
-        <v>460.3825214541208</v>
+        <v>369.4154285318799</v>
       </c>
       <c r="E41" t="n">
-        <v>460.3825214541208</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="F41" t="n">
-        <v>39.35210940780838</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="G41" t="n">
-        <v>39.35210940780838</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H41" t="n">
-        <v>39.35210940780838</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I41" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J41" t="n">
-        <v>139.4975455796488</v>
+        <v>139.4975455796487</v>
       </c>
       <c r="K41" t="n">
-        <v>316.5867763250664</v>
+        <v>316.5867763250662</v>
       </c>
       <c r="L41" t="n">
         <v>551.2268399181748</v>
@@ -7441,22 +7441,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T41" t="n">
-        <v>1752.488815111598</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="U41" t="n">
-        <v>1630.565846468859</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="V41" t="n">
-        <v>1280.72829180534</v>
+        <v>1189.761198883099</v>
       </c>
       <c r="W41" t="n">
-        <v>1280.72829180534</v>
+        <v>1189.761198883099</v>
       </c>
       <c r="X41" t="n">
-        <v>1280.72829180534</v>
+        <v>1189.761198883099</v>
       </c>
       <c r="Y41" t="n">
-        <v>1280.72829180534</v>
+        <v>1189.761198883099</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.5029048020664</v>
+        <v>410.6463318102734</v>
       </c>
       <c r="C42" t="n">
-        <v>426.5078335510121</v>
+        <v>276.6512605592191</v>
       </c>
       <c r="D42" t="n">
-        <v>309.6106757704045</v>
+        <v>276.6512605592191</v>
       </c>
       <c r="E42" t="n">
-        <v>309.6106757704045</v>
+        <v>276.6512605592191</v>
       </c>
       <c r="F42" t="n">
-        <v>200.6507959529091</v>
+        <v>167.6913807417237</v>
       </c>
       <c r="G42" t="n">
-        <v>94.79939839804331</v>
+        <v>61.83998318685792</v>
       </c>
       <c r="H42" t="n">
         <v>35.04977630223196</v>
@@ -7490,25 +7490,25 @@
         <v>53.13964940227881</v>
       </c>
       <c r="J42" t="n">
-        <v>107.7267972274735</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K42" t="n">
-        <v>232.6776313873097</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L42" t="n">
-        <v>419.4500769737226</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M42" t="n">
-        <v>645.244243095703</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N42" t="n">
-        <v>882.8500101142995</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O42" t="n">
-        <v>1091.21384982636</v>
+        <v>1407.897834511329</v>
       </c>
       <c r="P42" t="n">
-        <v>1250.614309047359</v>
+        <v>1567.298293732328</v>
       </c>
       <c r="Q42" t="n">
         <v>1653.63600483296</v>
@@ -7520,22 +7520,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T42" t="n">
-        <v>1510.897896606424</v>
+        <v>1510.897896606425</v>
       </c>
       <c r="U42" t="n">
-        <v>1313.622001213774</v>
+        <v>1313.622001213775</v>
       </c>
       <c r="V42" t="n">
-        <v>1249.767047198602</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.53387893493</v>
+        <v>886.6773059431372</v>
       </c>
       <c r="X42" t="n">
-        <v>860.207897073823</v>
+        <v>710.35132408203</v>
       </c>
       <c r="Y42" t="n">
-        <v>700.805937437653</v>
+        <v>550.9493644458601</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>750.5074226539064</v>
+        <v>587.9320028509164</v>
       </c>
       <c r="C43" t="n">
-        <v>750.5074226539064</v>
+        <v>587.9320028509164</v>
       </c>
       <c r="D43" t="n">
-        <v>591.0127779768163</v>
+        <v>428.4373581738265</v>
       </c>
       <c r="E43" t="n">
-        <v>430.1019628451357</v>
+        <v>428.4373581738265</v>
       </c>
       <c r="F43" t="n">
-        <v>430.1019628451357</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="G43" t="n">
         <v>263.8062322844177</v>
@@ -7569,22 +7569,22 @@
         <v>35.04977630223196</v>
       </c>
       <c r="J43" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K43" t="n">
-        <v>378.543013001709</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L43" t="n">
-        <v>777.5476490331416</v>
+        <v>427.3696561384556</v>
       </c>
       <c r="M43" t="n">
-        <v>868.5147480934394</v>
+        <v>861.1106378785761</v>
       </c>
       <c r="N43" t="n">
-        <v>1292.535452299041</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O43" t="n">
-        <v>1676.943631869031</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P43" t="n">
         <v>1734.885747605796</v>
@@ -7599,22 +7599,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T43" t="n">
-        <v>1517.019080101546</v>
+        <v>1517.019080101547</v>
       </c>
       <c r="U43" t="n">
         <v>1234.273005039329</v>
       </c>
       <c r="V43" t="n">
-        <v>1213.586983405458</v>
+        <v>960.3872599788513</v>
       </c>
       <c r="W43" t="n">
-        <v>1213.586983405458</v>
+        <v>681.3175954877256</v>
       </c>
       <c r="X43" t="n">
-        <v>975.2431212651417</v>
+        <v>681.3175954877256</v>
       </c>
       <c r="Y43" t="n">
-        <v>750.5074226539064</v>
+        <v>681.3175954877256</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>941.3309623951984</v>
+        <v>1195.924985857348</v>
       </c>
       <c r="C44" t="n">
-        <v>531.2063717084685</v>
+        <v>785.8003951706179</v>
       </c>
       <c r="D44" t="n">
-        <v>126.742441801529</v>
+        <v>785.8003951706179</v>
       </c>
       <c r="E44" t="n">
-        <v>126.742441801529</v>
+        <v>730.7623466348978</v>
       </c>
       <c r="F44" t="n">
-        <v>126.742441801529</v>
+        <v>730.7623466348978</v>
       </c>
       <c r="G44" t="n">
-        <v>126.742441801529</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="H44" t="n">
         <v>35.04977630223196</v>
@@ -7648,16 +7648,16 @@
         <v>35.04977630223196</v>
       </c>
       <c r="J44" t="n">
-        <v>139.4975455796484</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K44" t="n">
-        <v>316.586776325066</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L44" t="n">
         <v>551.2268399181748</v>
       </c>
       <c r="M44" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N44" t="n">
         <v>1105.344363062593</v>
@@ -7675,25 +7675,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S44" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T44" t="n">
-        <v>1752.488815111598</v>
+        <v>1452.815217449567</v>
       </c>
       <c r="U44" t="n">
-        <v>1752.488815111598</v>
+        <v>1195.924985857348</v>
       </c>
       <c r="V44" t="n">
-        <v>1752.488815111598</v>
+        <v>1195.924985857348</v>
       </c>
       <c r="W44" t="n">
-        <v>1752.488815111598</v>
+        <v>1195.924985857348</v>
       </c>
       <c r="X44" t="n">
-        <v>1752.488815111598</v>
+        <v>1195.924985857348</v>
       </c>
       <c r="Y44" t="n">
-        <v>1351.552142059688</v>
+        <v>1195.924985857348</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>441.1492520038183</v>
+        <v>607.9222272029232</v>
       </c>
       <c r="C45" t="n">
-        <v>441.1492520038183</v>
+        <v>473.9271559518689</v>
       </c>
       <c r="D45" t="n">
-        <v>324.2520942232107</v>
+        <v>357.0299981712613</v>
       </c>
       <c r="E45" t="n">
-        <v>203.7592782155387</v>
+        <v>236.5371821635893</v>
       </c>
       <c r="F45" t="n">
-        <v>94.79939839804331</v>
+        <v>127.5773023460939</v>
       </c>
       <c r="G45" t="n">
         <v>94.79939839804331</v>
@@ -7724,31 +7724,31 @@
         <v>35.04977630223196</v>
       </c>
       <c r="I45" t="n">
-        <v>35.04977630223196</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63692412742667</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K45" t="n">
-        <v>214.5877582872628</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L45" t="n">
-        <v>401.3602038736757</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M45" t="n">
-        <v>835.1011856137961</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.706952632393</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O45" t="n">
-        <v>1281.070792344453</v>
+        <v>1407.897834511329</v>
       </c>
       <c r="P45" t="n">
-        <v>1440.471251565452</v>
+        <v>1567.298293732328</v>
       </c>
       <c r="Q45" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R45" t="n">
         <v>1752.488815111598</v>
@@ -7760,19 +7760,19 @@
         <v>1510.897896606424</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.622001213774</v>
+        <v>1510.897896606424</v>
       </c>
       <c r="V45" t="n">
-        <v>1099.910474206808</v>
+        <v>1297.186369599458</v>
       </c>
       <c r="W45" t="n">
-        <v>886.677305943137</v>
+        <v>1083.953201335787</v>
       </c>
       <c r="X45" t="n">
-        <v>710.3513240820298</v>
+        <v>907.6272194746798</v>
       </c>
       <c r="Y45" t="n">
-        <v>581.452284639405</v>
+        <v>748.2252598385098</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.1694316564452</v>
+        <v>614.1854091772584</v>
       </c>
       <c r="C46" t="n">
-        <v>176.1694316564452</v>
+        <v>443.092036738975</v>
       </c>
       <c r="D46" t="n">
-        <v>176.1694316564452</v>
+        <v>283.597392061885</v>
       </c>
       <c r="E46" t="n">
-        <v>176.1694316564452</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="F46" t="n">
-        <v>176.1694316564452</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="G46" t="n">
-        <v>176.1694316564452</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="H46" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="I46" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J46" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K46" t="n">
-        <v>172.2628194159949</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L46" t="n">
-        <v>301.0956959326184</v>
+        <v>506.2660918160911</v>
       </c>
       <c r="M46" t="n">
-        <v>734.8366776727388</v>
+        <v>940.0070735562116</v>
       </c>
       <c r="N46" t="n">
-        <v>1158.857381878341</v>
+        <v>1364.027777761814</v>
       </c>
       <c r="O46" t="n">
-        <v>1550.669671663194</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P46" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q46" t="n">
         <v>1752.488815111598</v>
@@ -7836,22 +7836,22 @@
         <v>1710.14110497746</v>
       </c>
       <c r="T46" t="n">
-        <v>1474.671369967409</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="U46" t="n">
-        <v>1191.925294905192</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="V46" t="n">
-        <v>918.0395498447135</v>
+        <v>1436.255359916982</v>
       </c>
       <c r="W46" t="n">
-        <v>638.9698853535879</v>
+        <v>1157.185695425857</v>
       </c>
       <c r="X46" t="n">
-        <v>400.6260232132713</v>
+        <v>918.8418332855401</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.1694316564452</v>
+        <v>801.8851155713028</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>1.492859343081371</v>
       </c>
       <c r="J12" t="n">
-        <v>61.04377299585347</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>180.8840103912769</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.1116389082034</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>327.9092840734563</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>200.3598293200858</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>92.02571091957873</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>198.1163785065899</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>121.7664343065106</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9096,7 +9096,7 @@
         <v>346.236245131134</v>
       </c>
       <c r="N16" t="n">
-        <v>172.3809169351545</v>
+        <v>299.930371688525</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>249.4631678320279</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>70.41964498107251</v>
+        <v>73.75311182862259</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>182.8698803128639</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>18.15999422824179</v>
       </c>
       <c r="M19" t="n">
-        <v>346.236245131134</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.492859343081371</v>
+        <v>1.492859343081363</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>180.8840103912771</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>180.8840103912763</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>109.907793284394</v>
       </c>
       <c r="M22" t="n">
-        <v>346.2362451311341</v>
+        <v>346.236245131134</v>
       </c>
       <c r="N22" t="n">
-        <v>244.7613920042789</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>149.9020724675515</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>110.5017330878342</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>227.6536788162223</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.1116389082035</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>346.236245131134</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>255.6948139090401</v>
+        <v>255.0843504772806</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9123945853421</v>
+        <v>73.75311182862248</v>
       </c>
       <c r="R27" t="n">
-        <v>76.1013167904128</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>346.2362451311341</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>182.8698803128641</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>44.24985022243845</v>
       </c>
       <c r="Q28" t="n">
         <v>127.5494547533709</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>92.02571091957819</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>73.75311182862248</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>320.1606815798906</v>
+        <v>3.010064170776928</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>61.04377299585312</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.1116389082034</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>73.75311182862248</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10515,7 +10515,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>73.33547794445781</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>73.33547794445846</v>
       </c>
       <c r="Q34" t="n">
         <v>127.5494547533709</v>
@@ -10670,13 +10670,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>121.7664343065101</v>
       </c>
       <c r="M36" t="n">
-        <v>210.0472885031718</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>109.8355243099284</v>
+        <v>198.1163785065898</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>44.24985022243837</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>346.2362451311341</v>
+        <v>200.8849326978286</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.75311182862188</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>92.02571091957873</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>237.4572480377648</v>
       </c>
       <c r="M40" t="n">
-        <v>346.2362451311341</v>
+        <v>346.236245131134</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>30.20013147009152</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>73.75311182862228</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>319.8828128131004</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>237.4572480377651</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>310.7784335392697</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>210.0472885031718</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>73.75311182862228</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>216.9664228725832</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>44.2498502224382</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>346.236245131134</v>
@@ -11469,13 +11469,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>238.5639633748533</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.258746329649796</v>
+        <v>4.258746329649769</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23269,13 +23269,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>322.2647137642809</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>4.259309774520673</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.7611609493298</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3213292762975</v>
+        <v>145.9672247541644</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>56.54505852843633</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>134.9907745709271</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H13" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.0750884769112</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.025496429031</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>326.3398877868399</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H14" t="n">
-        <v>22.19103295109056</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I14" t="n">
-        <v>4.259309774520659</v>
+        <v>4.259309774520673</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U14" t="n">
         <v>254.3213292762975</v>
@@ -23560,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>56.54505852843639</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23633,10 +23633,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>151.917708906669</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>172.3240220068917</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T16" t="n">
         <v>233.1150376599508</v>
       </c>
       <c r="U16" t="n">
-        <v>122.6424384359157</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>396.0209769836227</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H17" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.259309774520673</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T17" t="n">
         <v>210.7611609493298</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>335.8218918019474</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33.93104719212145</v>
+        <v>134.9907745709268</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.92423303279622</v>
       </c>
       <c r="S19" t="n">
-        <v>95.26856044022463</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.1150376599508</v>
@@ -23949,13 +23949,13 @@
         <v>279.9186143115952</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>238.0584201605676</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>60.04885258021517</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.534031931252</v>
+        <v>331.6510946914065</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I20" t="n">
-        <v>4.259309774520673</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>210.7611609493298</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>93.08317306697478</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>134.9907745709268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.0446177397598</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.729559801574105</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T22" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.94481454683131</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,19 +24214,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2214126980871</v>
+        <v>135.1577170435757</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U23" t="n">
         <v>254.3213292762975</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>159.7756140901503</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>162.8530115301533</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.52219454694199</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>139.7084588006711</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>186.6074894813317</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>161.6012055083907</v>
+        <v>108.1067336871707</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>4.259309774520659</v>
@@ -24502,7 +24502,7 @@
         <v>254.3213292762975</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24533,10 +24533,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>73.80512708020109</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>56.545058528436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V28" t="n">
-        <v>176.5055301939771</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>245.6037152757231</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H29" t="n">
-        <v>205.225868012054</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I29" t="n">
         <v>4.259309774520659</v>
@@ -24739,10 +24739,10 @@
         <v>254.3213292762975</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>254.9596491253511</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24767,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>17.73039864535119</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>148.3580072618757</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>107.2506880699644</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.11251557276157</v>
       </c>
       <c r="I31" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T31" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>368.0989060621021</v>
+        <v>29.06959599115737</v>
       </c>
       <c r="G32" t="n">
         <v>402.534031931252</v>
@@ -24937,7 +24937,7 @@
         <v>286.2214126980871</v>
       </c>
       <c r="I32" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>72.34275867074706</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>114.4413727992981</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.97116713313216</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U34" t="n">
         <v>279.9186143115952</v>
@@ -25137,13 +25137,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>65.97380925910556</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,13 +25165,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2214126980871</v>
+        <v>209.5207462670335</v>
       </c>
       <c r="I35" t="n">
         <v>4.259309774520659</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T35" t="n">
-        <v>50.01038025371966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>27.12049355160656</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>65.94722189672017</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>116.5265553222224</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>66.00931172109709</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>322.2620423264123</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>300.2392408631599</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>15.70288672333135</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>148.3580072618755</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6438394471454</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25566,10 +25566,10 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7084588006711</v>
+        <v>128.7201003904373</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,10 +25636,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>79.17481762092081</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>402.534031931252</v>
@@ -25648,7 +25648,7 @@
         <v>286.2214126980871</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T41" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>133.6175903199864</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>32.62982105907353</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>148.3580072618755</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>93.37097261966287</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>250.6677261923412</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>355.7091452779093</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>195.445673853783</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>4.259309774520659</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7928835793171</v>
+        <v>72.34275867074706</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.1978909916097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I46" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>168.0570925953575</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.2763159838651745</v>
+        <v>106.701191088028</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373614.088276827</v>
+        <v>373614.0882768271</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373614.0882768272</v>
+        <v>373614.088276827</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373614.088276827</v>
+        <v>373614.0882768271</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373614.088276827</v>
+        <v>373614.0882768271</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373614.0882768271</v>
+        <v>373614.088276827</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373614.0882768271</v>
+        <v>373614.088276827</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>518407.7583024595</v>
       </c>
       <c r="C2" t="n">
-        <v>518407.7583024595</v>
+        <v>518407.7583024596</v>
       </c>
       <c r="D2" t="n">
-        <v>518432.1002968124</v>
+        <v>518432.1002968127</v>
       </c>
       <c r="E2" t="n">
         <v>290438.0626402737</v>
       </c>
       <c r="F2" t="n">
-        <v>290438.0626402735</v>
+        <v>290438.0626402736</v>
       </c>
       <c r="G2" t="n">
+        <v>290438.0626402739</v>
+      </c>
+      <c r="H2" t="n">
+        <v>290438.0626402736</v>
+      </c>
+      <c r="I2" t="n">
+        <v>290438.0626402736</v>
+      </c>
+      <c r="J2" t="n">
+        <v>290438.0626402736</v>
+      </c>
+      <c r="K2" t="n">
         <v>290438.0626402737</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>290438.0626402738</v>
+      </c>
+      <c r="M2" t="n">
         <v>290438.0626402737</v>
-      </c>
-      <c r="I2" t="n">
-        <v>290438.0626402735</v>
-      </c>
-      <c r="J2" t="n">
-        <v>290438.0626402735</v>
-      </c>
-      <c r="K2" t="n">
-        <v>290438.0626402734</v>
-      </c>
-      <c r="L2" t="n">
-        <v>290438.0626402737</v>
-      </c>
-      <c r="M2" t="n">
-        <v>290438.0626402738</v>
       </c>
       <c r="N2" t="n">
         <v>290438.0626402737</v>
       </c>
       <c r="O2" t="n">
-        <v>290438.0626402736</v>
+        <v>290438.0626402737</v>
       </c>
       <c r="P2" t="n">
-        <v>290438.0626402737</v>
+        <v>290438.0626402738</v>
       </c>
     </row>
     <row r="3">
@@ -26429,31 +26429,31 @@
         <v>29098.80722432979</v>
       </c>
       <c r="F4" t="n">
+        <v>29098.80722432979</v>
+      </c>
+      <c r="G4" t="n">
         <v>29098.8072243298</v>
       </c>
-      <c r="G4" t="n">
-        <v>29098.80722432979</v>
-      </c>
       <c r="H4" t="n">
+        <v>29098.80722432977</v>
+      </c>
+      <c r="I4" t="n">
         <v>29098.8072243298</v>
       </c>
-      <c r="I4" t="n">
-        <v>29098.80722432979</v>
-      </c>
       <c r="J4" t="n">
-        <v>29098.80722432979</v>
+        <v>29098.8072243298</v>
       </c>
       <c r="K4" t="n">
+        <v>29098.8072243298</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29098.8072243298</v>
+      </c>
+      <c r="M4" t="n">
         <v>29098.80722432978</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>29098.80722432978</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29098.80722432979</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29098.80722432979</v>
       </c>
       <c r="O4" t="n">
         <v>29098.80722432979</v>
@@ -26481,34 +26481,34 @@
         <v>38063.39795022208</v>
       </c>
       <c r="F5" t="n">
+        <v>38063.39795022208</v>
+      </c>
+      <c r="G5" t="n">
         <v>38063.39795022209</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38063.39795022208</v>
       </c>
       <c r="H5" t="n">
         <v>38063.39795022209</v>
       </c>
       <c r="I5" t="n">
-        <v>38063.39795022209</v>
+        <v>38063.3979502221</v>
       </c>
       <c r="J5" t="n">
         <v>38063.3979502221</v>
       </c>
       <c r="K5" t="n">
+        <v>38063.3979502221</v>
+      </c>
+      <c r="L5" t="n">
+        <v>38063.3979502221</v>
+      </c>
+      <c r="M5" t="n">
         <v>38063.39795022209</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>38063.39795022209</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>38063.3979502221</v>
-      </c>
-      <c r="N5" t="n">
-        <v>38063.3979502221</v>
-      </c>
-      <c r="O5" t="n">
-        <v>38063.39795022209</v>
       </c>
       <c r="P5" t="n">
         <v>38063.39795022209</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114917.5581047698</v>
+        <v>114908.7584191404</v>
       </c>
       <c r="C6" t="n">
-        <v>114917.5581047698</v>
+        <v>114908.7584191405</v>
       </c>
       <c r="D6" t="n">
-        <v>64578.12629781122</v>
+        <v>64569.40268091435</v>
       </c>
       <c r="E6" t="n">
-        <v>-252215.9234455929</v>
+        <v>-252937.1284301666</v>
       </c>
       <c r="F6" t="n">
-        <v>223275.8574657217</v>
+        <v>222554.652481148</v>
       </c>
       <c r="G6" t="n">
-        <v>223275.8574657218</v>
+        <v>222554.6524811484</v>
       </c>
       <c r="H6" t="n">
-        <v>223275.8574657218</v>
+        <v>222554.652481148</v>
       </c>
       <c r="I6" t="n">
-        <v>223275.8574657216</v>
+        <v>222554.652481148</v>
       </c>
       <c r="J6" t="n">
-        <v>223275.8574657216</v>
+        <v>222554.652481148</v>
       </c>
       <c r="K6" t="n">
-        <v>223275.8574657216</v>
+        <v>222554.652481148</v>
       </c>
       <c r="L6" t="n">
-        <v>223275.8574657218</v>
+        <v>222554.6524811482</v>
       </c>
       <c r="M6" t="n">
-        <v>114094.0517954542</v>
+        <v>113372.8468108804</v>
       </c>
       <c r="N6" t="n">
-        <v>223275.8574657218</v>
+        <v>222554.6524811481</v>
       </c>
       <c r="O6" t="n">
-        <v>223275.8574657217</v>
+        <v>222554.6524811481</v>
       </c>
       <c r="P6" t="n">
-        <v>223275.8574657218</v>
+        <v>222554.6524811482</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>524.108622042468</v>
       </c>
       <c r="F3" t="n">
-        <v>524.1086220424681</v>
+        <v>524.108622042468</v>
       </c>
       <c r="G3" t="n">
         <v>524.108622042468</v>
       </c>
       <c r="H3" t="n">
-        <v>524.108622042468</v>
+        <v>524.1086220424681</v>
       </c>
       <c r="I3" t="n">
         <v>524.1086220424681</v>
@@ -26801,31 +26801,31 @@
         <v>438.1222037778994</v>
       </c>
       <c r="F4" t="n">
+        <v>438.1222037778994</v>
+      </c>
+      <c r="G4" t="n">
         <v>438.1222037778995</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>438.1222037778994</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>438.1222037778995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>438.1222037778994</v>
       </c>
       <c r="J4" t="n">
         <v>438.1222037778995</v>
       </c>
       <c r="K4" t="n">
+        <v>438.1222037778995</v>
+      </c>
+      <c r="L4" t="n">
+        <v>438.1222037778995</v>
+      </c>
+      <c r="M4" t="n">
         <v>438.1222037778994</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>438.1222037778994</v>
-      </c>
-      <c r="M4" t="n">
-        <v>438.1222037778995</v>
-      </c>
-      <c r="N4" t="n">
-        <v>438.1222037778995</v>
       </c>
       <c r="O4" t="n">
         <v>438.1222037778995</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27882,10 +27882,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L8" t="n">
-        <v>35.16270217958864</v>
+        <v>35.16270217958865</v>
       </c>
       <c r="M8" t="n">
-        <v>26.16960234776164</v>
+        <v>26.16960234776165</v>
       </c>
       <c r="N8" t="n">
         <v>24.70558680915735</v>
@@ -27894,7 +27894,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P8" t="n">
-        <v>38.68062560122957</v>
+        <v>38.68062560122958</v>
       </c>
       <c r="Q8" t="n">
         <v>48.7545716309821</v>
@@ -27964,7 +27964,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M9" t="n">
-        <v>5.742459823057352</v>
+        <v>5.742459823057359</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3822549364463421</v>
+        <v>0.382254936446342</v>
       </c>
       <c r="H8" t="n">
-        <v>3.914768367881102</v>
+        <v>3.914768367881101</v>
       </c>
       <c r="I8" t="n">
-        <v>14.73688343734762</v>
+        <v>14.73688343734761</v>
       </c>
       <c r="J8" t="n">
         <v>32.44340991221275</v>
@@ -31530,10 +31530,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L8" t="n">
-        <v>60.32269588325618</v>
+        <v>60.32269588325617</v>
       </c>
       <c r="M8" t="n">
-        <v>67.12062210928381</v>
+        <v>67.1206221092838</v>
       </c>
       <c r="N8" t="n">
         <v>68.20670394746197</v>
@@ -31542,7 +31542,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P8" t="n">
-        <v>54.96873767965459</v>
+        <v>54.96873767965458</v>
       </c>
       <c r="Q8" t="n">
         <v>41.27923276816995</v>
@@ -31557,7 +31557,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03058039491570735</v>
+        <v>0.03058039491570736</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2045244218920218</v>
+        <v>0.2045244218920217</v>
       </c>
       <c r="H9" t="n">
         <v>1.975275337746631</v>
@@ -31612,7 +31612,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M9" t="n">
-        <v>51.82182391536007</v>
+        <v>51.82182391536006</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -31633,7 +31633,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8243769461349471</v>
+        <v>0.8243769461349469</v>
       </c>
       <c r="U9" t="n">
         <v>0.01345555407184354</v>
@@ -31697,16 +31697,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O10" t="n">
-        <v>24.23599693896883</v>
+        <v>24.23599693896882</v>
       </c>
       <c r="P10" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.35797323159518</v>
+        <v>14.35797323159517</v>
       </c>
       <c r="R10" t="n">
-        <v>7.709753078218404</v>
+        <v>7.709753078218403</v>
       </c>
       <c r="S10" t="n">
         <v>2.98819180164672</v>
@@ -31992,19 +31992,19 @@
         <v>2.106969334844091</v>
       </c>
       <c r="H14" t="n">
-        <v>21.57799970047206</v>
+        <v>21.57799970047205</v>
       </c>
       <c r="I14" t="n">
-        <v>81.22893528157691</v>
+        <v>81.2289352815769</v>
       </c>
       <c r="J14" t="n">
-        <v>178.8263885832239</v>
+        <v>178.8263885832238</v>
       </c>
       <c r="K14" t="n">
-        <v>268.0144005271743</v>
+        <v>268.0144005271742</v>
       </c>
       <c r="L14" t="n">
-        <v>332.4955633084093</v>
+        <v>332.4955633084091</v>
       </c>
       <c r="M14" t="n">
         <v>369.9653792169428</v>
@@ -32013,7 +32013,7 @@
         <v>375.9518058395686</v>
       </c>
       <c r="O14" t="n">
-        <v>355.0006295162127</v>
+        <v>355.0006295162126</v>
       </c>
       <c r="P14" t="n">
         <v>302.9848240622491</v>
@@ -32022,16 +32022,16 @@
         <v>227.528984758145</v>
       </c>
       <c r="R14" t="n">
-        <v>132.3519124799003</v>
+        <v>132.3519124799002</v>
       </c>
       <c r="S14" t="n">
-        <v>48.01256371775978</v>
+        <v>48.01256371775977</v>
       </c>
       <c r="T14" t="n">
-        <v>9.223258263280014</v>
+        <v>9.223258263280012</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1685575467875273</v>
+        <v>0.1685575467875272</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>10.88761495978788</v>
       </c>
       <c r="I15" t="n">
-        <v>38.81370455691864</v>
+        <v>38.81370455691863</v>
       </c>
       <c r="J15" t="n">
         <v>106.5077719567623</v>
@@ -32083,7 +32083,7 @@
         <v>182.0387465824297</v>
       </c>
       <c r="L15" t="n">
-        <v>244.7735597567207</v>
+        <v>244.7735597567206</v>
       </c>
       <c r="M15" t="n">
         <v>285.6391990131451</v>
@@ -32092,25 +32092,25 @@
         <v>293.1992186650596</v>
       </c>
       <c r="O15" t="n">
-        <v>268.2200039616771</v>
+        <v>268.220003961677</v>
       </c>
       <c r="P15" t="n">
         <v>215.2701998724998</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.9024276973962</v>
+        <v>143.9024276973961</v>
       </c>
       <c r="R15" t="n">
-        <v>69.99322314748285</v>
+        <v>69.99322314748284</v>
       </c>
       <c r="S15" t="n">
-        <v>20.93962277688539</v>
+        <v>20.93962277688538</v>
       </c>
       <c r="T15" t="n">
-        <v>4.543922864688944</v>
+        <v>4.543922864688943</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07416631443997194</v>
+        <v>0.07416631443997192</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9451139086011719</v>
+        <v>0.9451139086011717</v>
       </c>
       <c r="H16" t="n">
-        <v>8.402921841926789</v>
+        <v>8.402921841926787</v>
       </c>
       <c r="I16" t="n">
         <v>28.42215281502434</v>
       </c>
       <c r="J16" t="n">
-        <v>66.81955333810285</v>
+        <v>66.81955333810284</v>
       </c>
       <c r="K16" t="n">
-        <v>109.8050522902089</v>
+        <v>109.8050522902088</v>
       </c>
       <c r="L16" t="n">
         <v>140.5126623751233</v>
@@ -32177,19 +32177,19 @@
         <v>114.3072312729999</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.14040192841269</v>
+        <v>79.14040192841267</v>
       </c>
       <c r="R16" t="n">
-        <v>42.49575810855814</v>
+        <v>42.49575810855813</v>
       </c>
       <c r="S16" t="n">
-        <v>16.47075784353133</v>
+        <v>16.47075784353132</v>
       </c>
       <c r="T16" t="n">
-        <v>4.038213973114098</v>
+        <v>4.038213973114097</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05155166774188217</v>
+        <v>0.05155166774188216</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,19 +32466,19 @@
         <v>2.106969334844091</v>
       </c>
       <c r="H20" t="n">
-        <v>21.57799970047205</v>
+        <v>21.57799970047206</v>
       </c>
       <c r="I20" t="n">
-        <v>81.2289352815769</v>
+        <v>81.22893528157691</v>
       </c>
       <c r="J20" t="n">
-        <v>178.8263885832238</v>
+        <v>178.8263885832239</v>
       </c>
       <c r="K20" t="n">
-        <v>268.0144005271742</v>
+        <v>268.0144005271743</v>
       </c>
       <c r="L20" t="n">
-        <v>332.4955633084091</v>
+        <v>332.4955633084093</v>
       </c>
       <c r="M20" t="n">
         <v>369.9653792169428</v>
@@ -32487,7 +32487,7 @@
         <v>375.9518058395686</v>
       </c>
       <c r="O20" t="n">
-        <v>355.0006295162126</v>
+        <v>355.0006295162127</v>
       </c>
       <c r="P20" t="n">
         <v>302.9848240622491</v>
@@ -32496,16 +32496,16 @@
         <v>227.528984758145</v>
       </c>
       <c r="R20" t="n">
-        <v>132.3519124799002</v>
+        <v>132.3519124799003</v>
       </c>
       <c r="S20" t="n">
-        <v>48.01256371775977</v>
+        <v>48.01256371775978</v>
       </c>
       <c r="T20" t="n">
-        <v>9.223258263280012</v>
+        <v>9.223258263280014</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1685575467875272</v>
+        <v>0.1685575467875273</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>10.88761495978788</v>
       </c>
       <c r="I21" t="n">
-        <v>38.81370455691863</v>
+        <v>38.81370455691864</v>
       </c>
       <c r="J21" t="n">
         <v>106.5077719567623</v>
@@ -32557,7 +32557,7 @@
         <v>182.0387465824297</v>
       </c>
       <c r="L21" t="n">
-        <v>244.7735597567206</v>
+        <v>244.7735597567207</v>
       </c>
       <c r="M21" t="n">
         <v>285.6391990131451</v>
@@ -32566,25 +32566,25 @@
         <v>293.1992186650596</v>
       </c>
       <c r="O21" t="n">
-        <v>268.220003961677</v>
+        <v>268.2200039616771</v>
       </c>
       <c r="P21" t="n">
         <v>215.2701998724998</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.9024276973961</v>
+        <v>143.9024276973962</v>
       </c>
       <c r="R21" t="n">
-        <v>69.99322314748284</v>
+        <v>69.99322314748285</v>
       </c>
       <c r="S21" t="n">
-        <v>20.93962277688538</v>
+        <v>20.93962277688539</v>
       </c>
       <c r="T21" t="n">
-        <v>4.543922864688943</v>
+        <v>4.543922864688944</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07416631443997192</v>
+        <v>0.07416631443997194</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9451139086011717</v>
+        <v>0.9451139086011719</v>
       </c>
       <c r="H22" t="n">
-        <v>8.402921841926787</v>
+        <v>8.402921841926789</v>
       </c>
       <c r="I22" t="n">
         <v>28.42215281502434</v>
       </c>
       <c r="J22" t="n">
-        <v>66.81955333810284</v>
+        <v>66.81955333810285</v>
       </c>
       <c r="K22" t="n">
-        <v>109.8050522902088</v>
+        <v>109.8050522902089</v>
       </c>
       <c r="L22" t="n">
         <v>140.5126623751233</v>
@@ -32651,19 +32651,19 @@
         <v>114.3072312729999</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.14040192841267</v>
+        <v>79.14040192841269</v>
       </c>
       <c r="R22" t="n">
-        <v>42.49575810855813</v>
+        <v>42.49575810855814</v>
       </c>
       <c r="S22" t="n">
-        <v>16.47075784353132</v>
+        <v>16.47075784353133</v>
       </c>
       <c r="T22" t="n">
-        <v>4.038213973114097</v>
+        <v>4.038213973114098</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05155166774188216</v>
+        <v>0.05155166774188217</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>81.22893528157691</v>
       </c>
       <c r="J44" t="n">
-        <v>178.8263885832236</v>
+        <v>178.8263885832239</v>
       </c>
       <c r="K44" t="n">
         <v>268.0144005271743</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>116.1823061526158</v>
+        <v>301.2682341412403</v>
       </c>
       <c r="K12" t="n">
-        <v>126.2129637978143</v>
+        <v>307.0969741890912</v>
       </c>
       <c r="L12" t="n">
         <v>188.6590359458716</v>
@@ -35506,13 +35506,13 @@
         <v>210.468524961677</v>
       </c>
       <c r="P12" t="n">
-        <v>438.1222037778994</v>
+        <v>161.010564869696</v>
       </c>
       <c r="Q12" t="n">
         <v>87.20980919255743</v>
       </c>
       <c r="R12" t="n">
-        <v>99.85132351377567</v>
+        <v>10.99302404207743</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>403.034985890336</v>
       </c>
       <c r="M13" t="n">
-        <v>91.88595864676543</v>
+        <v>419.7952427202218</v>
       </c>
       <c r="N13" t="n">
         <v>92.91555834143087</v>
@@ -35585,10 +35585,10 @@
         <v>395.76998968167</v>
       </c>
       <c r="P13" t="n">
-        <v>258.8872189531809</v>
+        <v>58.52738963309508</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.3303310218579</v>
+        <v>17.78087626848711</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>105.5027972499159</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8780108539572</v>
+        <v>178.8780108539571</v>
       </c>
       <c r="L14" t="n">
-        <v>237.0101652455645</v>
+        <v>237.0101652455643</v>
       </c>
       <c r="M14" t="n">
-        <v>276.6751547598974</v>
+        <v>276.6751547598973</v>
       </c>
       <c r="N14" t="n">
         <v>283.0395150829493</v>
       </c>
       <c r="O14" t="n">
-        <v>261.8108538904296</v>
+        <v>261.8108538904295</v>
       </c>
       <c r="P14" t="n">
-        <v>209.335460781365</v>
+        <v>209.3354607813649</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.495180358993</v>
+        <v>137.4951803589929</v>
       </c>
       <c r="R14" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517673</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.2725990909564</v>
       </c>
       <c r="J15" t="n">
-        <v>301.2682341412404</v>
+        <v>55.1385331567623</v>
       </c>
       <c r="K15" t="n">
         <v>126.2129637978143</v>
       </c>
       <c r="L15" t="n">
-        <v>280.6847468654503</v>
+        <v>188.6590359458716</v>
       </c>
       <c r="M15" t="n">
-        <v>228.0749152747277</v>
+        <v>228.0749152747276</v>
       </c>
       <c r="N15" t="n">
-        <v>240.0058252713096</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="O15" t="n">
-        <v>210.4685249616771</v>
+        <v>210.468524961677</v>
       </c>
       <c r="P15" t="n">
-        <v>161.0105648696961</v>
+        <v>161.010564869696</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.20980919255746</v>
+        <v>208.976243499068</v>
       </c>
       <c r="R15" t="n">
         <v>99.85132351377567</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04435071710338</v>
+        <v>81.04435071710336</v>
       </c>
       <c r="K16" t="n">
         <v>265.9185146359038</v>
@@ -35813,19 +35813,19 @@
         <v>403.034985890336</v>
       </c>
       <c r="M16" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="N16" t="n">
-        <v>265.2964752765853</v>
+        <v>392.8459300299559</v>
       </c>
       <c r="O16" t="n">
-        <v>77.51265693546756</v>
+        <v>77.51265693546753</v>
       </c>
       <c r="P16" t="n">
-        <v>58.5273896330951</v>
+        <v>58.52738963309508</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848711</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>18.2725990909564</v>
       </c>
       <c r="J18" t="n">
-        <v>55.1385331567623</v>
+        <v>301.2682341412403</v>
       </c>
       <c r="K18" t="n">
         <v>126.2129637978143</v>
       </c>
       <c r="L18" t="n">
-        <v>438.1222037778994</v>
+        <v>188.6590359458716</v>
       </c>
       <c r="M18" t="n">
-        <v>298.4945602558001</v>
+        <v>301.8280271033502</v>
       </c>
       <c r="N18" t="n">
         <v>240.0058252713096</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.38640765514742</v>
+        <v>81.04435071710336</v>
       </c>
       <c r="K19" t="n">
-        <v>240.4245630440059</v>
+        <v>265.9185146359038</v>
       </c>
       <c r="L19" t="n">
-        <v>403.034985890336</v>
+        <v>104.0443627094636</v>
       </c>
       <c r="M19" t="n">
-        <v>438.1222037778994</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N19" t="n">
-        <v>92.91555834143087</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O19" t="n">
         <v>77.51265693546753</v>
@@ -36062,7 +36062,7 @@
         <v>322.0602012221033</v>
       </c>
       <c r="Q19" t="n">
-        <v>145.3303310218579</v>
+        <v>17.78087626848711</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>105.5027972499159</v>
       </c>
       <c r="K20" t="n">
-        <v>178.8780108539571</v>
+        <v>178.8780108539572</v>
       </c>
       <c r="L20" t="n">
-        <v>237.0101652455643</v>
+        <v>237.0101652455645</v>
       </c>
       <c r="M20" t="n">
-        <v>276.6751547598973</v>
+        <v>276.6751547598974</v>
       </c>
       <c r="N20" t="n">
         <v>283.0395150829493</v>
       </c>
       <c r="O20" t="n">
-        <v>261.8108538904295</v>
+        <v>261.8108538904296</v>
       </c>
       <c r="P20" t="n">
-        <v>209.3354607813649</v>
+        <v>209.335460781365</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.4951803589929</v>
+        <v>137.495180358993</v>
       </c>
       <c r="R20" t="n">
-        <v>45.03976966517673</v>
+        <v>45.03976966517676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>301.2682341412403</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K21" t="n">
         <v>126.2129637978143</v>
@@ -36208,22 +36208,22 @@
         <v>188.6590359458716</v>
       </c>
       <c r="M21" t="n">
-        <v>408.9589256660047</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N21" t="n">
         <v>240.0058252713096</v>
       </c>
       <c r="O21" t="n">
-        <v>210.468524961677</v>
+        <v>210.4685249616771</v>
       </c>
       <c r="P21" t="n">
-        <v>161.010564869696</v>
+        <v>161.0105648696961</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.20980919255743</v>
+        <v>268.0938195838337</v>
       </c>
       <c r="R21" t="n">
-        <v>10.99302404207743</v>
+        <v>10.99302404207744</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04435071710336</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K22" t="n">
-        <v>57.55468273114201</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L22" t="n">
-        <v>403.034985890336</v>
+        <v>195.7921617656158</v>
       </c>
       <c r="M22" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="N22" t="n">
-        <v>337.6769503457098</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O22" t="n">
-        <v>77.51265693546753</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P22" t="n">
-        <v>322.0602012221033</v>
+        <v>58.5273896330951</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.78087626848711</v>
+        <v>145.330331021858</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>55.13853315676233</v>
       </c>
       <c r="K24" t="n">
-        <v>126.2129637978143</v>
+        <v>276.1150362653659</v>
       </c>
       <c r="L24" t="n">
         <v>188.6590359458716</v>
       </c>
       <c r="M24" t="n">
-        <v>338.5766483625619</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N24" t="n">
         <v>240.0058252713096</v>
       </c>
       <c r="O24" t="n">
-        <v>438.1222037778994</v>
+        <v>210.4685249616771</v>
       </c>
       <c r="P24" t="n">
-        <v>161.0105648696961</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="Q24" t="n">
         <v>87.20980919255746</v>
       </c>
       <c r="R24" t="n">
-        <v>99.85132351377567</v>
+        <v>10.99302404207744</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.38640765514743</v>
+        <v>81.04435071710338</v>
       </c>
       <c r="K25" t="n">
-        <v>57.55468273114204</v>
+        <v>265.9185146359038</v>
       </c>
       <c r="L25" t="n">
         <v>403.034985890336</v>
       </c>
       <c r="M25" t="n">
-        <v>438.1222037778994</v>
+        <v>91.88595864676546</v>
       </c>
       <c r="N25" t="n">
-        <v>348.610372250471</v>
+        <v>347.9999088187114</v>
       </c>
       <c r="O25" t="n">
-        <v>395.7699896816701</v>
+        <v>77.51265693546756</v>
       </c>
       <c r="P25" t="n">
-        <v>58.5273896330951</v>
+        <v>322.0602012221033</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.78087626848712</v>
+        <v>145.330331021858</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>137.495180358993</v>
       </c>
       <c r="R26" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517703</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J27" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K27" t="n">
         <v>126.2129637978143</v>
@@ -36694,10 +36694,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q27" t="n">
-        <v>438.1222037778995</v>
+        <v>160.9629210211799</v>
       </c>
       <c r="R27" t="n">
-        <v>87.09434083249025</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.38640765514743</v>
+        <v>81.04435071710338</v>
       </c>
       <c r="K28" t="n">
         <v>57.55468273114204</v>
       </c>
       <c r="L28" t="n">
-        <v>403.034985890336</v>
+        <v>85.88436848122183</v>
       </c>
       <c r="M28" t="n">
         <v>438.1222037778995</v>
       </c>
       <c r="N28" t="n">
-        <v>92.91555834143089</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O28" t="n">
-        <v>260.3825372483316</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P28" t="n">
-        <v>322.0602012221033</v>
+        <v>102.7772398555336</v>
       </c>
       <c r="Q28" t="n">
         <v>145.330331021858</v>
@@ -36855,7 +36855,7 @@
         <v>137.495180358993</v>
       </c>
       <c r="R29" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517703</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J30" t="n">
         <v>301.2682341412404</v>
@@ -36925,13 +36925,13 @@
         <v>240.0058252713096</v>
       </c>
       <c r="O30" t="n">
-        <v>302.4942358812553</v>
+        <v>210.4685249616771</v>
       </c>
       <c r="P30" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.20980919255746</v>
+        <v>160.9629210211799</v>
       </c>
       <c r="R30" t="n">
         <v>99.85132351377567</v>
@@ -36995,10 +36995,10 @@
         <v>57.55468273114204</v>
       </c>
       <c r="L31" t="n">
-        <v>85.88436848122183</v>
+        <v>403.034985890336</v>
       </c>
       <c r="M31" t="n">
-        <v>412.0466402266561</v>
+        <v>94.89602281754239</v>
       </c>
       <c r="N31" t="n">
         <v>428.3037416218203</v>
@@ -37071,7 +37071,7 @@
         <v>105.5027972499159</v>
       </c>
       <c r="K32" t="n">
-        <v>178.8780108539569</v>
+        <v>178.8780108539572</v>
       </c>
       <c r="L32" t="n">
         <v>237.0101652455645</v>
@@ -37092,7 +37092,7 @@
         <v>137.495180358993</v>
       </c>
       <c r="R32" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517703</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J33" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K33" t="n">
         <v>126.2129637978143</v>
@@ -37162,13 +37162,13 @@
         <v>240.0058252713096</v>
       </c>
       <c r="O33" t="n">
-        <v>271.5122979575302</v>
+        <v>210.4685249616771</v>
       </c>
       <c r="P33" t="n">
-        <v>438.1222037778994</v>
+        <v>161.0105648696961</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.20980919255746</v>
+        <v>160.9629210211799</v>
       </c>
       <c r="R33" t="n">
         <v>99.85132351377567</v>
@@ -37235,7 +37235,7 @@
         <v>403.034985890336</v>
       </c>
       <c r="M34" t="n">
-        <v>165.2214365912233</v>
+        <v>91.88595864676546</v>
       </c>
       <c r="N34" t="n">
         <v>428.3037416218203</v>
@@ -37244,7 +37244,7 @@
         <v>395.7699896816701</v>
       </c>
       <c r="P34" t="n">
-        <v>58.5273896330951</v>
+        <v>131.8628675775536</v>
       </c>
       <c r="Q34" t="n">
         <v>145.330331021858</v>
@@ -37390,13 +37390,13 @@
         <v>126.2129637978143</v>
       </c>
       <c r="L36" t="n">
-        <v>188.6590359458716</v>
+        <v>310.4254702523817</v>
       </c>
       <c r="M36" t="n">
-        <v>438.1222037778995</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N36" t="n">
-        <v>349.841349581238</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="O36" t="n">
         <v>210.4685249616771</v>
@@ -37469,10 +37469,10 @@
         <v>57.55468273114204</v>
       </c>
       <c r="L37" t="n">
-        <v>130.1342187036602</v>
+        <v>403.034985890336</v>
       </c>
       <c r="M37" t="n">
-        <v>438.1222037778995</v>
+        <v>292.770891344594</v>
       </c>
       <c r="N37" t="n">
         <v>428.3037416218203</v>
@@ -37484,7 +37484,7 @@
         <v>58.5273896330951</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J39" t="n">
         <v>301.2682341412404</v>
       </c>
       <c r="K39" t="n">
-        <v>126.2129637978143</v>
+        <v>199.9660756264362</v>
       </c>
       <c r="L39" t="n">
         <v>188.6590359458716</v>
@@ -37633,7 +37633,7 @@
         <v>228.0749152747277</v>
       </c>
       <c r="N39" t="n">
-        <v>332.0315361908883</v>
+        <v>240.0058252713096</v>
       </c>
       <c r="O39" t="n">
         <v>210.4685249616771</v>
@@ -37703,19 +37703,19 @@
         <v>15.38640765514743</v>
       </c>
       <c r="K40" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L40" t="n">
-        <v>403.034985890336</v>
+        <v>323.3416165189866</v>
       </c>
       <c r="M40" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="N40" t="n">
         <v>428.3037416218203</v>
       </c>
       <c r="O40" t="n">
-        <v>107.7127884055591</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P40" t="n">
         <v>58.5273896330951</v>
@@ -37858,7 +37858,7 @@
         <v>18.27259909095641</v>
       </c>
       <c r="J42" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K42" t="n">
         <v>126.2129637978143</v>
@@ -37873,13 +37873,13 @@
         <v>240.0058252713096</v>
       </c>
       <c r="O42" t="n">
-        <v>210.4685249616771</v>
+        <v>284.2216367902994</v>
       </c>
       <c r="P42" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q42" t="n">
-        <v>407.0926220056578</v>
+        <v>87.20980919255746</v>
       </c>
       <c r="R42" t="n">
         <v>99.85132351377567</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04435071710338</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K43" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L43" t="n">
-        <v>403.034985890336</v>
+        <v>323.3416165189869</v>
       </c>
       <c r="M43" t="n">
-        <v>91.88595864676546</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N43" t="n">
         <v>428.3037416218203</v>
       </c>
       <c r="O43" t="n">
-        <v>388.2910904747372</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P43" t="n">
         <v>58.5273896330951</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.5027972499156</v>
+        <v>105.5027972499159</v>
       </c>
       <c r="K44" t="n">
         <v>178.8780108539572</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J45" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K45" t="n">
         <v>126.2129637978143</v>
@@ -38104,22 +38104,22 @@
         <v>188.6590359458716</v>
       </c>
       <c r="M45" t="n">
-        <v>438.1222037778995</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N45" t="n">
         <v>240.0058252713096</v>
       </c>
       <c r="O45" t="n">
-        <v>210.4685249616771</v>
+        <v>284.2216367902994</v>
       </c>
       <c r="P45" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q45" t="n">
-        <v>304.1762320651407</v>
+        <v>87.20980919255746</v>
       </c>
       <c r="R45" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04435071710338</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K46" t="n">
         <v>57.55468273114204</v>
       </c>
       <c r="L46" t="n">
-        <v>130.13421870366</v>
+        <v>403.034985890336</v>
       </c>
       <c r="M46" t="n">
         <v>438.1222037778995</v>
@@ -38189,13 +38189,13 @@
         <v>428.3037416218203</v>
       </c>
       <c r="O46" t="n">
-        <v>395.7699896816701</v>
+        <v>316.0766203103209</v>
       </c>
       <c r="P46" t="n">
         <v>58.5273896330951</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
